--- a/문서파일/2팀 2차 흐름도.xlsx
+++ b/문서파일/2팀 2차 흐름도.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EZEN304-05\Desktop\2팀 trip 프로젝트\2팀 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EZEN304-05\Desktop\2팀 quizbee 프로젝트\2팀 2차 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="839">
   <si>
     <t>구분</t>
   </si>
@@ -2029,88 +2029,88 @@
   </si>
   <si>
     <t>URI</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Method</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Router</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>MySQL</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>TABLE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>회원가입</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>검색</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>로고</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>local로그인</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>카카오로그인</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>회원</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>로그인 실패/비밀번호 실패</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>회원가입 비밀번호 확인 틀릴시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>마이페이지/내 정보/회원탈퇴</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>비회원</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>회원가입 아이디/비밀번호/이메일/전화번호/우편번호 입력하지 않을시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>로그인안하고  QnA/자유게시판 
 글 작성, 마이페이지 누를시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2205,39 +2205,39 @@
       </rPr>
       <t>작성시</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>작성글에서 수정 누를 시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>게시판에서 작성글 누를 시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>게시판에서 글작성 누를 시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>작성글에서 삭제 누를 시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>자유게시판</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>관리자</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>내가 추가한 게시판 리스트 받아오기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>내가 추가한 qna리스트 받아오기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>회원정보 수정 버튼 &gt; 비밀번호 확인 페이지</t>
@@ -2281,27 +2281,27 @@
       </rPr>
       <t>보기</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>마이페이지/내 정보 가져오기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>아이디 찾기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호 찾기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>고객문의</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>qna 글 작성하기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2318,7 +2318,7 @@
       </rPr>
       <t>상세내용</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2356,7 +2356,7 @@
       </rPr>
       <t>지정</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2394,7 +2394,7 @@
       </rPr>
       <t>수정</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2432,7 +2432,7 @@
       </rPr>
       <t>삭제</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2491,11 +2491,11 @@
       </rPr>
       <t>달기</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>게시판 글 삭제</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2530,19 +2530,19 @@
       </rPr>
       <t>수정</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>회원 정보 삭제</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>게시판에서 검색</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>게시판 정보 가져오기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2575,103 +2575,95 @@
       </rPr>
       <t>공지사항</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>자유게시판 이동</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이 페이지 이동</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>고객센터 이동</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>공통</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>메뉴바</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>한자</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>영어</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>국어</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>수학</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>공지사항</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>퀴즈 조회수순 정렬</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>로그아웃 클릭시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/join</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/login</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/find</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 추가한 댓글 리스트 받아오기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>내가 추가한 퀴즈 목록 받아오기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>퀴즈</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>퀴즈를 눌렀을때</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>퀴즈 정답 맞췃을시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>퀴즈 정답 틀렷을시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>퀴즈 정답 복수처리</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>퀴즈 이미지 랜덤 배치</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>퀴즈 끝낫을때 정답갯수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2724,126 +2716,589 @@
       </rPr>
       <t>퍼센트지</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>퀴즈 끝낫을때 댓글 구현</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>댓글 신고기능</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>댓글 삭제기능</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>댓글</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>퀴즈 카테고리별 조회수 정렬</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>공지사항 작성</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/login</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/boardwrite</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/qna?page=</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/board</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/notice</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/mypage</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/mypage/quizpage</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/mypage/commentpage</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/mypage/contentpage</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/mypage/qnapage</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/mypage/update</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/mypage/passwd</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/quiz/quiz_no</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/board/boardwrite</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/board?page=</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/board/boardDetail?board_no=</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/boardContent?board_no=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/qnawrite</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/admin/qna/qnacontent?qna_no=</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/admin/user</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/admin/board</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/admin/qna?page=</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8080/admin/qna/qnacontent/write?qna_no=</t>
   </si>
   <si>
     <t>http://localhost:8080/notice/noticewrite</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>findID()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>findPW()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/findId</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/find_pass</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakaoLogin()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSubmitForm()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/join_process</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/kakaoJoinProcess</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>login()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/login_process</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근에 푼 퀴즈</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentList()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/quiz/currentQuiz</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeList()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/noticeList</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuizList()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/quiz/quizList</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>goToNotice()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>goToBoard()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>goToQna()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeLevel(category, level)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/quiz/${this.menuCategory}/${level}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/login_process</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/join_process</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>login()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> onSubmitForm()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> validationCheck()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfo()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>userDele()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/delete/${this.user.user_no}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/${this.user.user_no}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBoard()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/myboard_list</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> getQnA()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/myqna_list</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/mypageupdate</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/passupdate</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadQuizzes()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/quiz/mylist/${this.user.user_no}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>fetchContent()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bd/board</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>write_board()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>handleBoardClick(board_no)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bd/incrementBoardView</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitSearch()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bd/contentsearch</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> deleteContent(board_no)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bd/delete</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmEditContent()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bd/edit</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentwrite()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bd/comment_write</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qna/qna_list</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qna/write</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSubmitWrite()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qna/qnacontent</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qna/edit</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>editContent(), confirmEditContent()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qna/delete</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteContent(qna_no), confirmDeleteContent(qna_no)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz</t>
+  </si>
+  <si>
+    <t>quiz</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_user</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_board</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_qna, quiz_board</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypage</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_user</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_info</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">quiz_qna </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/userinfo</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>info()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/board_list</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBoard()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/boarddelete</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteContent(board_no), confirmDeleteContent(board_no)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_board</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/qna_list</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/write_ans</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">quiz_qna, </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_qna, quiz_user</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>userDele(userNo)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/delete</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>savePost()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/write</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_notice</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkAnswer()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadRankings()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateQuizProgress()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/quiz/save</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/quiz/scores/${this.quizNo}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffleImages()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/quiz/images?quiz_no=${this.$route.params.quizNo}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadComments()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/quiz/commentlist/${this.quizNo}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteComment(commentId)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/quiz/delete/${this.quizNo}/${commentId}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>handleReport()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/quiz/report</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadTopQuizzes()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/quiz/top-quizzes/${this.quizCategory}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_images</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_quiz</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_info</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitMain()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>/quiz/quizSearch</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2855,7 +3310,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2934,13 +3389,6 @@
       <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3884,9 +4332,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4102,19 +4550,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4144,191 +4592,191 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="57" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="57" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4345,46 +4793,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4393,7 +4841,7 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="58" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="58" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4402,13 +4850,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4417,22 +4862,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4444,7 +4886,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4459,7 +4901,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4476,9 +4918,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4501,45 +4940,60 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4553,22 +5007,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4578,6 +5034,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4585,8 +5045,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4597,21 +5066,7 @@
     <xf numFmtId="176" fontId="10" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4910,19 +5365,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="235" t="s">
+      <c r="B1" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="235" t="s">
+      <c r="C1" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="235" t="s">
+      <c r="D1" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="235" t="s">
+      <c r="E1" s="231" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="236"/>
@@ -4932,11 +5387,11 @@
       <c r="J1" s="237"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="234"/>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
+      <c r="A2" s="230"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
       <c r="F2" s="236"/>
       <c r="G2" s="237"/>
       <c r="H2" s="237"/>
@@ -4967,7 +5422,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="239"/>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="233" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -4982,7 +5437,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="239"/>
-      <c r="B5" s="224"/>
+      <c r="B5" s="234"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -4995,7 +5450,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="239"/>
-      <c r="B6" s="224"/>
+      <c r="B6" s="234"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
@@ -5008,7 +5463,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="239"/>
-      <c r="B7" s="224"/>
+      <c r="B7" s="234"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
@@ -5021,8 +5476,8 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="239"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="243" t="s">
+      <c r="B8" s="234"/>
+      <c r="C8" s="227" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -5034,8 +5489,8 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="239"/>
-      <c r="B9" s="224"/>
-      <c r="C9" s="225"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="228"/>
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
@@ -5045,7 +5500,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="239"/>
-      <c r="B10" s="224"/>
+      <c r="B10" s="234"/>
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
@@ -5058,7 +5513,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="239"/>
-      <c r="B11" s="225"/>
+      <c r="B11" s="228"/>
       <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
@@ -5071,7 +5526,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="239"/>
-      <c r="B12" s="223" t="s">
+      <c r="B12" s="233" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -5086,7 +5541,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="239"/>
-      <c r="B13" s="224"/>
+      <c r="B13" s="234"/>
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
@@ -5099,7 +5554,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="239"/>
-      <c r="B14" s="224"/>
+      <c r="B14" s="234"/>
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
@@ -5112,7 +5567,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="239"/>
-      <c r="B15" s="224"/>
+      <c r="B15" s="234"/>
       <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
@@ -5125,7 +5580,7 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="239"/>
-      <c r="B16" s="224"/>
+      <c r="B16" s="234"/>
       <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
@@ -5138,7 +5593,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="239"/>
-      <c r="B17" s="225"/>
+      <c r="B17" s="228"/>
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
@@ -5151,7 +5606,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="239"/>
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="233" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -5166,7 +5621,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="239"/>
-      <c r="B19" s="224"/>
+      <c r="B19" s="234"/>
       <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
@@ -5179,7 +5634,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="239"/>
-      <c r="B20" s="224"/>
+      <c r="B20" s="234"/>
       <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
@@ -5192,7 +5647,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="239"/>
-      <c r="B21" s="224"/>
+      <c r="B21" s="234"/>
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
@@ -5205,7 +5660,7 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="239"/>
-      <c r="B22" s="224"/>
+      <c r="B22" s="234"/>
       <c r="C22" s="3" t="s">
         <v>45</v>
       </c>
@@ -5218,7 +5673,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="239"/>
-      <c r="B23" s="224"/>
+      <c r="B23" s="234"/>
       <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
@@ -5231,7 +5686,7 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="239"/>
-      <c r="B24" s="224"/>
+      <c r="B24" s="234"/>
       <c r="C24" s="3" t="s">
         <v>49</v>
       </c>
@@ -5244,7 +5699,7 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="239"/>
-      <c r="B25" s="224"/>
+      <c r="B25" s="234"/>
       <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
@@ -5257,7 +5712,7 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="239"/>
-      <c r="B26" s="225"/>
+      <c r="B26" s="228"/>
       <c r="C26" s="3" t="s">
         <v>53</v>
       </c>
@@ -5270,7 +5725,7 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="239"/>
-      <c r="B27" s="223" t="s">
+      <c r="B27" s="233" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -5285,8 +5740,8 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="239"/>
-      <c r="B28" s="224"/>
-      <c r="C28" s="245" t="s">
+      <c r="B28" s="234"/>
+      <c r="C28" s="235" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -5298,8 +5753,8 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="239"/>
-      <c r="B29" s="224"/>
-      <c r="C29" s="225"/>
+      <c r="B29" s="234"/>
+      <c r="C29" s="228"/>
       <c r="D29" s="8" t="s">
         <v>19</v>
       </c>
@@ -5309,7 +5764,7 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="239"/>
-      <c r="B30" s="224"/>
+      <c r="B30" s="234"/>
       <c r="C30" s="3" t="s">
         <v>53</v>
       </c>
@@ -5322,7 +5777,7 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="239"/>
-      <c r="B31" s="224"/>
+      <c r="B31" s="234"/>
       <c r="C31" s="3" t="s">
         <v>60</v>
       </c>
@@ -5335,7 +5790,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="239"/>
-      <c r="B32" s="225"/>
+      <c r="B32" s="228"/>
       <c r="C32" s="3" t="s">
         <v>62</v>
       </c>
@@ -5348,7 +5803,7 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="239"/>
-      <c r="B33" s="242" t="s">
+      <c r="B33" s="244" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -5363,7 +5818,7 @@
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="239"/>
-      <c r="B34" s="224"/>
+      <c r="B34" s="234"/>
       <c r="C34" s="6" t="s">
         <v>29</v>
       </c>
@@ -5376,7 +5831,7 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="239"/>
-      <c r="B35" s="224"/>
+      <c r="B35" s="234"/>
       <c r="C35" s="3" t="s">
         <v>31</v>
       </c>
@@ -5389,7 +5844,7 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="239"/>
-      <c r="B36" s="224"/>
+      <c r="B36" s="234"/>
       <c r="C36" s="3" t="s">
         <v>67</v>
       </c>
@@ -5402,7 +5857,7 @@
     </row>
     <row r="37" spans="1:5" ht="14.25">
       <c r="A37" s="239"/>
-      <c r="B37" s="224"/>
+      <c r="B37" s="234"/>
       <c r="C37" s="3" t="s">
         <v>69</v>
       </c>
@@ -5415,7 +5870,7 @@
     </row>
     <row r="38" spans="1:5" ht="14.25">
       <c r="A38" s="239"/>
-      <c r="B38" s="224"/>
+      <c r="B38" s="234"/>
       <c r="C38" s="9" t="s">
         <v>71</v>
       </c>
@@ -5428,7 +5883,7 @@
     </row>
     <row r="39" spans="1:5" ht="14.25">
       <c r="A39" s="239"/>
-      <c r="B39" s="225"/>
+      <c r="B39" s="228"/>
       <c r="C39" s="10" t="s">
         <v>73</v>
       </c>
@@ -5456,7 +5911,7 @@
     </row>
     <row r="41" spans="1:5" ht="14.25">
       <c r="A41" s="239"/>
-      <c r="B41" s="229"/>
+      <c r="B41" s="242"/>
       <c r="C41" s="11" t="s">
         <v>78</v>
       </c>
@@ -5469,7 +5924,7 @@
     </row>
     <row r="42" spans="1:5" ht="14.25">
       <c r="A42" s="239"/>
-      <c r="B42" s="229"/>
+      <c r="B42" s="242"/>
       <c r="C42" s="11" t="s">
         <v>80</v>
       </c>
@@ -5482,7 +5937,7 @@
     </row>
     <row r="43" spans="1:5" ht="14.25">
       <c r="A43" s="240"/>
-      <c r="B43" s="230"/>
+      <c r="B43" s="243"/>
       <c r="C43" s="11" t="s">
         <v>82</v>
       </c>
@@ -5494,10 +5949,10 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.25">
-      <c r="A45" s="228" t="s">
+      <c r="A45" s="246" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="231" t="s">
+      <c r="B45" s="247" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="13" t="s">
@@ -5511,8 +5966,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.25">
-      <c r="A46" s="229"/>
-      <c r="B46" s="224"/>
+      <c r="A46" s="242"/>
+      <c r="B46" s="234"/>
       <c r="C46" s="3" t="s">
         <v>88</v>
       </c>
@@ -5524,8 +5979,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.25">
-      <c r="A47" s="229"/>
-      <c r="B47" s="224"/>
+      <c r="A47" s="242"/>
+      <c r="B47" s="234"/>
       <c r="C47" s="3" t="s">
         <v>90</v>
       </c>
@@ -5537,8 +5992,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.25">
-      <c r="A48" s="229"/>
-      <c r="B48" s="225"/>
+      <c r="A48" s="242"/>
+      <c r="B48" s="228"/>
       <c r="C48" s="3" t="s">
         <v>92</v>
       </c>
@@ -5550,8 +6005,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.25">
-      <c r="A49" s="229"/>
-      <c r="B49" s="223" t="s">
+      <c r="A49" s="242"/>
+      <c r="B49" s="233" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -5565,8 +6020,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.25">
-      <c r="A50" s="229"/>
-      <c r="B50" s="224"/>
+      <c r="A50" s="242"/>
+      <c r="B50" s="234"/>
       <c r="C50" s="3" t="s">
         <v>97</v>
       </c>
@@ -5578,8 +6033,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.25">
-      <c r="A51" s="229"/>
-      <c r="B51" s="224"/>
+      <c r="A51" s="242"/>
+      <c r="B51" s="234"/>
       <c r="C51" s="3" t="s">
         <v>99</v>
       </c>
@@ -5591,8 +6046,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.25">
-      <c r="A52" s="229"/>
-      <c r="B52" s="225"/>
+      <c r="A52" s="242"/>
+      <c r="B52" s="228"/>
       <c r="C52" s="3" t="s">
         <v>101</v>
       </c>
@@ -5604,8 +6059,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.25">
-      <c r="A53" s="229"/>
-      <c r="B53" s="223" t="s">
+      <c r="A53" s="242"/>
+      <c r="B53" s="233" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -5619,8 +6074,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.25">
-      <c r="A54" s="229"/>
-      <c r="B54" s="224"/>
+      <c r="A54" s="242"/>
+      <c r="B54" s="234"/>
       <c r="C54" s="3" t="s">
         <v>15</v>
       </c>
@@ -5632,8 +6087,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.25">
-      <c r="A55" s="229"/>
-      <c r="B55" s="224"/>
+      <c r="A55" s="242"/>
+      <c r="B55" s="234"/>
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
@@ -5645,8 +6100,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.25">
-      <c r="A56" s="229"/>
-      <c r="B56" s="224"/>
+      <c r="A56" s="242"/>
+      <c r="B56" s="234"/>
       <c r="C56" s="3" t="s">
         <v>104</v>
       </c>
@@ -5658,9 +6113,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.25">
-      <c r="A57" s="229"/>
-      <c r="B57" s="224"/>
-      <c r="C57" s="243" t="s">
+      <c r="A57" s="242"/>
+      <c r="B57" s="234"/>
+      <c r="C57" s="227" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="6" t="s">
@@ -5671,9 +6126,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.25">
-      <c r="A58" s="229"/>
-      <c r="B58" s="224"/>
-      <c r="C58" s="225"/>
+      <c r="A58" s="242"/>
+      <c r="B58" s="234"/>
+      <c r="C58" s="228"/>
       <c r="D58" s="3" t="s">
         <v>19</v>
       </c>
@@ -5682,8 +6137,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.25">
-      <c r="A59" s="229"/>
-      <c r="B59" s="224"/>
+      <c r="A59" s="242"/>
+      <c r="B59" s="234"/>
       <c r="C59" s="3" t="s">
         <v>20</v>
       </c>
@@ -5695,8 +6150,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="14.25">
-      <c r="A60" s="229"/>
-      <c r="B60" s="224"/>
+      <c r="A60" s="242"/>
+      <c r="B60" s="234"/>
       <c r="C60" s="3" t="s">
         <v>22</v>
       </c>
@@ -5708,8 +6163,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="14.25">
-      <c r="A61" s="229"/>
-      <c r="B61" s="224"/>
+      <c r="A61" s="242"/>
+      <c r="B61" s="234"/>
       <c r="C61" s="3" t="s">
         <v>85</v>
       </c>
@@ -5721,8 +6176,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.25">
-      <c r="A62" s="229"/>
-      <c r="B62" s="225"/>
+      <c r="A62" s="242"/>
+      <c r="B62" s="228"/>
       <c r="C62" s="3" t="s">
         <v>94</v>
       </c>
@@ -5734,8 +6189,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.25">
-      <c r="A63" s="229"/>
-      <c r="B63" s="223" t="s">
+      <c r="A63" s="242"/>
+      <c r="B63" s="233" t="s">
         <v>35</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -5749,8 +6204,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="14.25">
-      <c r="A64" s="229"/>
-      <c r="B64" s="224"/>
+      <c r="A64" s="242"/>
+      <c r="B64" s="234"/>
       <c r="C64" s="3" t="s">
         <v>38</v>
       </c>
@@ -5762,8 +6217,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="14.25">
-      <c r="A65" s="229"/>
-      <c r="B65" s="224"/>
+      <c r="A65" s="242"/>
+      <c r="B65" s="234"/>
       <c r="C65" s="3" t="s">
         <v>40</v>
       </c>
@@ -5775,8 +6230,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="14.25">
-      <c r="A66" s="229"/>
-      <c r="B66" s="224"/>
+      <c r="A66" s="242"/>
+      <c r="B66" s="234"/>
       <c r="C66" s="3" t="s">
         <v>111</v>
       </c>
@@ -5788,8 +6243,8 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="14.25">
-      <c r="A67" s="229"/>
-      <c r="B67" s="224"/>
+      <c r="A67" s="242"/>
+      <c r="B67" s="234"/>
       <c r="C67" s="3" t="s">
         <v>43</v>
       </c>
@@ -5801,8 +6256,8 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="14.25">
-      <c r="A68" s="229"/>
-      <c r="B68" s="224"/>
+      <c r="A68" s="242"/>
+      <c r="B68" s="234"/>
       <c r="C68" s="3" t="s">
         <v>47</v>
       </c>
@@ -5814,8 +6269,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="14.25">
-      <c r="A69" s="229"/>
-      <c r="B69" s="224"/>
+      <c r="A69" s="242"/>
+      <c r="B69" s="234"/>
       <c r="C69" s="3" t="s">
         <v>49</v>
       </c>
@@ -5827,8 +6282,8 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="14.25">
-      <c r="A70" s="229"/>
-      <c r="B70" s="224"/>
+      <c r="A70" s="242"/>
+      <c r="B70" s="234"/>
       <c r="C70" s="3" t="s">
         <v>115</v>
       </c>
@@ -5841,8 +6296,8 @@
       <c r="H70" s="14"/>
     </row>
     <row r="71" spans="1:8" ht="14.25">
-      <c r="A71" s="230"/>
-      <c r="B71" s="225"/>
+      <c r="A71" s="243"/>
+      <c r="B71" s="228"/>
       <c r="C71" s="3" t="s">
         <v>53</v>
       </c>
@@ -5855,7 +6310,7 @@
       <c r="H71" s="14"/>
     </row>
     <row r="73" spans="1:8" ht="14.25">
-      <c r="A73" s="232" t="s">
+      <c r="A73" s="248" t="s">
         <v>116</v>
       </c>
       <c r="B73" s="15" t="s">
@@ -5872,8 +6327,8 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="14.25">
-      <c r="A74" s="233"/>
-      <c r="B74" s="226" t="s">
+      <c r="A74" s="249"/>
+      <c r="B74" s="245" t="s">
         <v>118</v>
       </c>
       <c r="C74" s="17" t="s">
@@ -5887,8 +6342,8 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="14.25">
-      <c r="A75" s="233"/>
-      <c r="B75" s="227"/>
+      <c r="A75" s="249"/>
+      <c r="B75" s="232"/>
       <c r="C75" s="17" t="s">
         <v>121</v>
       </c>
@@ -5900,7 +6355,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="14.25">
-      <c r="A76" s="233"/>
+      <c r="A76" s="249"/>
       <c r="B76" s="18" t="s">
         <v>123</v>
       </c>
@@ -5915,8 +6370,8 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="14.25">
-      <c r="A77" s="233"/>
-      <c r="B77" s="226" t="s">
+      <c r="A77" s="249"/>
+      <c r="B77" s="245" t="s">
         <v>35</v>
       </c>
       <c r="C77" s="19" t="s">
@@ -5930,8 +6385,8 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="14.25">
-      <c r="A78" s="234"/>
-      <c r="B78" s="227"/>
+      <c r="A78" s="230"/>
+      <c r="B78" s="232"/>
       <c r="C78" s="17" t="s">
         <v>128</v>
       </c>
@@ -5944,21 +6399,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A3:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B33:B39"/>
     <mergeCell ref="B63:B71"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="B18:B26"/>
@@ -5969,8 +6409,23 @@
     <mergeCell ref="B53:B62"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="B77:B78"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A3:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C28:C29"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup fitToWidth="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd"/>
@@ -5999,36 +6454,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="250" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="251" t="s">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="253" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="252"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="254"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="255" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="253" t="s">
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="257" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="254"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="258"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="21"/>
@@ -6289,36 +6744,36 @@
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="248" t="s">
+      <c r="A14" s="250" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="249"/>
-      <c r="C14" s="249"/>
-      <c r="D14" s="250"/>
-      <c r="E14" s="251" t="s">
+      <c r="B14" s="251"/>
+      <c r="C14" s="251"/>
+      <c r="D14" s="252"/>
+      <c r="E14" s="253" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="249"/>
-      <c r="G14" s="249"/>
-      <c r="H14" s="249"/>
-      <c r="I14" s="249"/>
-      <c r="J14" s="252"/>
+      <c r="F14" s="251"/>
+      <c r="G14" s="251"/>
+      <c r="H14" s="251"/>
+      <c r="I14" s="251"/>
+      <c r="J14" s="254"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="246" t="s">
+      <c r="A15" s="255" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="247"/>
-      <c r="C15" s="247"/>
-      <c r="D15" s="225"/>
-      <c r="E15" s="253" t="s">
+      <c r="B15" s="256"/>
+      <c r="C15" s="256"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="257" t="s">
         <v>175</v>
       </c>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="247"/>
-      <c r="J15" s="254"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="258"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="21"/>
@@ -6709,36 +7164,36 @@
       <c r="J32" s="40"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A33" s="248" t="s">
+      <c r="A33" s="250" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="249"/>
-      <c r="C33" s="249"/>
-      <c r="D33" s="250"/>
-      <c r="E33" s="251" t="s">
+      <c r="B33" s="251"/>
+      <c r="C33" s="251"/>
+      <c r="D33" s="252"/>
+      <c r="E33" s="253" t="s">
         <v>212</v>
       </c>
-      <c r="F33" s="249"/>
-      <c r="G33" s="249"/>
-      <c r="H33" s="249"/>
-      <c r="I33" s="249"/>
-      <c r="J33" s="252"/>
+      <c r="F33" s="251"/>
+      <c r="G33" s="251"/>
+      <c r="H33" s="251"/>
+      <c r="I33" s="251"/>
+      <c r="J33" s="254"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A34" s="246" t="s">
+      <c r="A34" s="255" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="247"/>
-      <c r="C34" s="247"/>
-      <c r="D34" s="225"/>
-      <c r="E34" s="253" t="s">
+      <c r="B34" s="256"/>
+      <c r="C34" s="256"/>
+      <c r="D34" s="228"/>
+      <c r="E34" s="257" t="s">
         <v>213</v>
       </c>
-      <c r="F34" s="247"/>
-      <c r="G34" s="247"/>
-      <c r="H34" s="247"/>
-      <c r="I34" s="247"/>
-      <c r="J34" s="254"/>
+      <c r="F34" s="256"/>
+      <c r="G34" s="256"/>
+      <c r="H34" s="256"/>
+      <c r="I34" s="256"/>
+      <c r="J34" s="258"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
       <c r="A35" s="21"/>
@@ -6883,36 +7338,36 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="12.75">
-      <c r="A41" s="248" t="s">
+      <c r="A41" s="250" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="249"/>
-      <c r="C41" s="249"/>
-      <c r="D41" s="250"/>
-      <c r="E41" s="251" t="s">
+      <c r="B41" s="251"/>
+      <c r="C41" s="251"/>
+      <c r="D41" s="252"/>
+      <c r="E41" s="253" t="s">
         <v>226</v>
       </c>
-      <c r="F41" s="249"/>
-      <c r="G41" s="249"/>
-      <c r="H41" s="249"/>
-      <c r="I41" s="249"/>
-      <c r="J41" s="252"/>
+      <c r="F41" s="251"/>
+      <c r="G41" s="251"/>
+      <c r="H41" s="251"/>
+      <c r="I41" s="251"/>
+      <c r="J41" s="254"/>
     </row>
     <row r="42" spans="1:10" ht="12.75">
-      <c r="A42" s="246" t="s">
+      <c r="A42" s="255" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="247"/>
-      <c r="C42" s="247"/>
-      <c r="D42" s="225"/>
-      <c r="E42" s="253" t="s">
+      <c r="B42" s="256"/>
+      <c r="C42" s="256"/>
+      <c r="D42" s="228"/>
+      <c r="E42" s="257" t="s">
         <v>227</v>
       </c>
-      <c r="F42" s="247"/>
-      <c r="G42" s="247"/>
-      <c r="H42" s="247"/>
-      <c r="I42" s="247"/>
-      <c r="J42" s="254"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="256"/>
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="258"/>
     </row>
     <row r="43" spans="1:10" ht="12.75">
       <c r="A43" s="21"/>
@@ -7012,36 +7467,36 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="12.75">
-      <c r="A47" s="248" t="s">
+      <c r="A47" s="250" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="249"/>
-      <c r="C47" s="249"/>
-      <c r="D47" s="250"/>
-      <c r="E47" s="251" t="s">
+      <c r="B47" s="251"/>
+      <c r="C47" s="251"/>
+      <c r="D47" s="252"/>
+      <c r="E47" s="253" t="s">
         <v>234</v>
       </c>
-      <c r="F47" s="249"/>
-      <c r="G47" s="249"/>
-      <c r="H47" s="249"/>
-      <c r="I47" s="249"/>
-      <c r="J47" s="252"/>
+      <c r="F47" s="251"/>
+      <c r="G47" s="251"/>
+      <c r="H47" s="251"/>
+      <c r="I47" s="251"/>
+      <c r="J47" s="254"/>
     </row>
     <row r="48" spans="1:10" ht="12.75">
-      <c r="A48" s="246" t="s">
+      <c r="A48" s="255" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="247"/>
-      <c r="C48" s="247"/>
-      <c r="D48" s="225"/>
-      <c r="E48" s="253" t="s">
+      <c r="B48" s="256"/>
+      <c r="C48" s="256"/>
+      <c r="D48" s="228"/>
+      <c r="E48" s="257" t="s">
         <v>235</v>
       </c>
-      <c r="F48" s="247"/>
-      <c r="G48" s="247"/>
-      <c r="H48" s="247"/>
-      <c r="I48" s="247"/>
-      <c r="J48" s="254"/>
+      <c r="F48" s="256"/>
+      <c r="G48" s="256"/>
+      <c r="H48" s="256"/>
+      <c r="I48" s="256"/>
+      <c r="J48" s="258"/>
     </row>
     <row r="49" spans="1:10" ht="12.75">
       <c r="A49" s="21"/>
@@ -7246,36 +7701,36 @@
       <c r="J57" s="51"/>
     </row>
     <row r="58" spans="1:10" ht="12.75">
-      <c r="A58" s="248" t="s">
+      <c r="A58" s="250" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="249"/>
-      <c r="C58" s="249"/>
-      <c r="D58" s="250"/>
-      <c r="E58" s="251" t="s">
+      <c r="B58" s="251"/>
+      <c r="C58" s="251"/>
+      <c r="D58" s="252"/>
+      <c r="E58" s="253" t="s">
         <v>252</v>
       </c>
-      <c r="F58" s="249"/>
-      <c r="G58" s="249"/>
-      <c r="H58" s="249"/>
-      <c r="I58" s="249"/>
-      <c r="J58" s="252"/>
+      <c r="F58" s="251"/>
+      <c r="G58" s="251"/>
+      <c r="H58" s="251"/>
+      <c r="I58" s="251"/>
+      <c r="J58" s="254"/>
     </row>
     <row r="59" spans="1:10" ht="12.75">
-      <c r="A59" s="246" t="s">
+      <c r="A59" s="255" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="247"/>
-      <c r="C59" s="247"/>
-      <c r="D59" s="225"/>
-      <c r="E59" s="253" t="s">
+      <c r="B59" s="256"/>
+      <c r="C59" s="256"/>
+      <c r="D59" s="228"/>
+      <c r="E59" s="257" t="s">
         <v>253</v>
       </c>
-      <c r="F59" s="247"/>
-      <c r="G59" s="247"/>
-      <c r="H59" s="247"/>
-      <c r="I59" s="247"/>
-      <c r="J59" s="254"/>
+      <c r="F59" s="256"/>
+      <c r="G59" s="256"/>
+      <c r="H59" s="256"/>
+      <c r="I59" s="256"/>
+      <c r="J59" s="258"/>
     </row>
     <row r="60" spans="1:10" ht="12.75">
       <c r="A60" s="21"/>
@@ -7382,36 +7837,36 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="12.75">
-      <c r="A64" s="248" t="s">
+      <c r="A64" s="250" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="249"/>
-      <c r="C64" s="249"/>
-      <c r="D64" s="250"/>
-      <c r="E64" s="251" t="s">
+      <c r="B64" s="251"/>
+      <c r="C64" s="251"/>
+      <c r="D64" s="252"/>
+      <c r="E64" s="253" t="s">
         <v>261</v>
       </c>
-      <c r="F64" s="249"/>
-      <c r="G64" s="249"/>
-      <c r="H64" s="249"/>
-      <c r="I64" s="249"/>
-      <c r="J64" s="252"/>
+      <c r="F64" s="251"/>
+      <c r="G64" s="251"/>
+      <c r="H64" s="251"/>
+      <c r="I64" s="251"/>
+      <c r="J64" s="254"/>
     </row>
     <row r="65" spans="1:10" ht="12.75">
-      <c r="A65" s="246" t="s">
+      <c r="A65" s="255" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="247"/>
-      <c r="C65" s="247"/>
-      <c r="D65" s="225"/>
-      <c r="E65" s="253" t="s">
+      <c r="B65" s="256"/>
+      <c r="C65" s="256"/>
+      <c r="D65" s="228"/>
+      <c r="E65" s="257" t="s">
         <v>262</v>
       </c>
-      <c r="F65" s="247"/>
-      <c r="G65" s="247"/>
-      <c r="H65" s="247"/>
-      <c r="I65" s="247"/>
-      <c r="J65" s="254"/>
+      <c r="F65" s="256"/>
+      <c r="G65" s="256"/>
+      <c r="H65" s="256"/>
+      <c r="I65" s="256"/>
+      <c r="J65" s="258"/>
     </row>
     <row r="66" spans="1:10" ht="12.75">
       <c r="A66" s="21"/>
@@ -7511,36 +7966,36 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="12.75">
-      <c r="A70" s="248" t="s">
+      <c r="A70" s="250" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="249"/>
-      <c r="C70" s="249"/>
-      <c r="D70" s="250"/>
-      <c r="E70" s="251" t="s">
+      <c r="B70" s="251"/>
+      <c r="C70" s="251"/>
+      <c r="D70" s="252"/>
+      <c r="E70" s="253" t="s">
         <v>269</v>
       </c>
-      <c r="F70" s="249"/>
-      <c r="G70" s="249"/>
-      <c r="H70" s="249"/>
-      <c r="I70" s="249"/>
-      <c r="J70" s="252"/>
+      <c r="F70" s="251"/>
+      <c r="G70" s="251"/>
+      <c r="H70" s="251"/>
+      <c r="I70" s="251"/>
+      <c r="J70" s="254"/>
     </row>
     <row r="71" spans="1:10" ht="12.75">
-      <c r="A71" s="246" t="s">
+      <c r="A71" s="255" t="s">
         <v>133</v>
       </c>
-      <c r="B71" s="247"/>
-      <c r="C71" s="247"/>
-      <c r="D71" s="225"/>
-      <c r="E71" s="253" t="s">
+      <c r="B71" s="256"/>
+      <c r="C71" s="256"/>
+      <c r="D71" s="228"/>
+      <c r="E71" s="257" t="s">
         <v>270</v>
       </c>
-      <c r="F71" s="247"/>
-      <c r="G71" s="247"/>
-      <c r="H71" s="247"/>
-      <c r="I71" s="247"/>
-      <c r="J71" s="254"/>
+      <c r="F71" s="256"/>
+      <c r="G71" s="256"/>
+      <c r="H71" s="256"/>
+      <c r="I71" s="256"/>
+      <c r="J71" s="258"/>
     </row>
     <row r="72" spans="1:10" ht="12.75">
       <c r="A72" s="21"/>
@@ -7648,29 +8103,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="A70:D70"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A59:D59"/>
@@ -7680,8 +8112,31 @@
     <mergeCell ref="E65:J65"/>
     <mergeCell ref="E70:J70"/>
     <mergeCell ref="E71:J71"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:J14"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="A1:D2 A14:D15 A33:D34 A41:D42 A47:D48 A58:D59 A64:D65 A70:D71">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -11848,7 +12303,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:B1021"/>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F25:F66">
       <formula1>"팀전체,서연주,백민경,양소원,권영민,신동진,임승리,신동진,권영민,신동진,백민경,양소원,임승리,서연주,신동진"</formula1>
@@ -11871,7 +12326,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11917,91 +12372,139 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="192" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="189" t="s">
         <v>630</v>
       </c>
-      <c r="C2" s="163"/>
+      <c r="C2" s="163" t="s">
+        <v>837</v>
+      </c>
       <c r="D2" s="156" t="s">
         <v>628</v>
       </c>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="164"/>
+      <c r="E2" s="162" t="s">
+        <v>836</v>
+      </c>
+      <c r="F2" s="162" t="s">
+        <v>838</v>
+      </c>
+      <c r="G2" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H2" s="164" t="s">
+        <v>835</v>
+      </c>
       <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="12.75">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="192" t="s">
         <v>410</v>
       </c>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="189" t="s">
         <v>631</v>
       </c>
-      <c r="C3" s="163"/>
+      <c r="C3" s="225" t="s">
+        <v>731</v>
+      </c>
       <c r="D3" s="156" t="s">
         <v>628</v>
       </c>
-      <c r="E3" s="162"/>
+      <c r="E3" s="162" t="s">
+        <v>731</v>
+      </c>
       <c r="F3" s="162"/>
       <c r="G3" s="165"/>
       <c r="H3" s="164"/>
       <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9" ht="12.75">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="192" t="s">
         <v>410</v>
       </c>
-      <c r="B4" s="191" t="s">
+      <c r="B4" s="190" t="s">
         <v>669</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="164"/>
+      <c r="C4" s="163" t="s">
+        <v>736</v>
+      </c>
+      <c r="D4" s="156" t="s">
+        <v>628</v>
+      </c>
+      <c r="E4" s="162" t="s">
+        <v>735</v>
+      </c>
+      <c r="F4" s="162" t="s">
+        <v>814</v>
+      </c>
+      <c r="G4" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H4" s="164" t="s">
+        <v>815</v>
+      </c>
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9" ht="12.75">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="192" t="s">
         <v>410</v>
       </c>
-      <c r="B5" s="262" t="s">
-        <v>671</v>
-      </c>
-      <c r="C5" s="163"/>
-      <c r="D5" s="222" t="s">
-        <v>706</v>
-      </c>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="164"/>
+      <c r="B5" s="189" t="s">
+        <v>679</v>
+      </c>
+      <c r="C5" s="163" t="s">
+        <v>738</v>
+      </c>
+      <c r="D5" s="156" t="s">
+        <v>628</v>
+      </c>
+      <c r="E5" s="162" t="s">
+        <v>737</v>
+      </c>
+      <c r="F5" s="162" t="s">
+        <v>790</v>
+      </c>
+      <c r="G5" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H5" s="164" t="s">
+        <v>796</v>
+      </c>
       <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:9" ht="12.75">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="192" t="s">
         <v>410</v>
       </c>
-      <c r="B6" s="190" t="s">
-        <v>680</v>
-      </c>
-      <c r="C6" s="163"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="164"/>
+      <c r="B6" s="189" t="s">
+        <v>732</v>
+      </c>
+      <c r="C6" s="163" t="s">
+        <v>734</v>
+      </c>
+      <c r="D6" s="156" t="s">
+        <v>628</v>
+      </c>
+      <c r="E6" s="162" t="s">
+        <v>733</v>
+      </c>
+      <c r="F6" s="162" t="s">
+        <v>790</v>
+      </c>
+      <c r="G6" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H6" s="164" t="s">
+        <v>796</v>
+      </c>
       <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:9" ht="12.75">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="192" t="s">
         <v>410</v>
       </c>
-      <c r="B7" s="190"/>
+      <c r="B7" s="189"/>
       <c r="C7" s="163"/>
       <c r="D7" s="156"/>
       <c r="E7" s="162"/>
@@ -12012,9 +12515,9 @@
     </row>
     <row r="8" spans="1:9" ht="12.75">
       <c r="A8" s="171" t="s">
-        <v>674</v>
-      </c>
-      <c r="B8" s="196"/>
+        <v>673</v>
+      </c>
+      <c r="B8" s="194"/>
       <c r="C8" s="163"/>
       <c r="D8" s="156"/>
       <c r="E8" s="162"/>
@@ -12024,121 +12527,181 @@
       <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9" ht="12.75">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="192" t="s">
         <v>410</v>
       </c>
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="189" t="s">
+        <v>674</v>
+      </c>
+      <c r="C9" s="261" t="s">
+        <v>731</v>
+      </c>
+      <c r="D9" s="260" t="s">
+        <v>743</v>
+      </c>
+      <c r="E9" s="259" t="s">
+        <v>742</v>
+      </c>
+      <c r="F9" s="162" t="s">
+        <v>731</v>
+      </c>
+      <c r="G9" s="165" t="s">
+        <v>731</v>
+      </c>
+      <c r="H9" s="164" t="s">
+        <v>731</v>
+      </c>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75">
+      <c r="A10" s="192" t="s">
+        <v>410</v>
+      </c>
+      <c r="B10" s="189" t="s">
         <v>675</v>
       </c>
-      <c r="C9" s="163"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="37"/>
-    </row>
-    <row r="10" spans="1:9" ht="12.75">
-      <c r="A10" s="194" t="s">
+      <c r="C10" s="261"/>
+      <c r="D10" s="260"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="162" t="s">
+        <v>731</v>
+      </c>
+      <c r="G10" s="165" t="s">
+        <v>731</v>
+      </c>
+      <c r="H10" s="164" t="s">
+        <v>731</v>
+      </c>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:9" ht="12.75">
+      <c r="A11" s="192" t="s">
         <v>410</v>
       </c>
-      <c r="B10" s="190" t="s">
+      <c r="B11" s="189" t="s">
         <v>676</v>
       </c>
-      <c r="C10" s="163"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="1:9" ht="12.75">
-      <c r="A11" s="194" t="s">
+      <c r="C11" s="261"/>
+      <c r="D11" s="260"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="162" t="s">
+        <v>731</v>
+      </c>
+      <c r="G11" s="165" t="s">
+        <v>731</v>
+      </c>
+      <c r="H11" s="164" t="s">
+        <v>731</v>
+      </c>
+      <c r="I11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75">
+      <c r="A12" s="192" t="s">
         <v>410</v>
       </c>
-      <c r="B11" s="190" t="s">
+      <c r="B12" s="220" t="s">
         <v>677</v>
       </c>
-      <c r="C11" s="163"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="37"/>
-    </row>
-    <row r="12" spans="1:9" ht="12.75">
-      <c r="A12" s="194" t="s">
+      <c r="C12" s="261"/>
+      <c r="D12" s="260"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="162" t="s">
+        <v>731</v>
+      </c>
+      <c r="G12" s="165" t="s">
+        <v>731</v>
+      </c>
+      <c r="H12" s="164" t="s">
+        <v>731</v>
+      </c>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75">
+      <c r="A13" s="192" t="s">
         <v>410</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B13" s="189" t="s">
+        <v>671</v>
+      </c>
+      <c r="C13" s="163" t="s">
+        <v>731</v>
+      </c>
+      <c r="D13" s="156" t="s">
+        <v>701</v>
+      </c>
+      <c r="E13" s="162" t="s">
+        <v>741</v>
+      </c>
+      <c r="F13" s="162" t="s">
+        <v>731</v>
+      </c>
+      <c r="G13" s="165" t="s">
+        <v>731</v>
+      </c>
+      <c r="H13" s="164" t="s">
+        <v>731</v>
+      </c>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" ht="12.75">
+      <c r="A14" s="192" t="s">
+        <v>410</v>
+      </c>
+      <c r="B14" s="189" t="s">
+        <v>670</v>
+      </c>
+      <c r="C14" s="163" t="s">
+        <v>731</v>
+      </c>
+      <c r="D14" s="156" t="s">
+        <v>702</v>
+      </c>
+      <c r="E14" s="162" t="s">
+        <v>740</v>
+      </c>
+      <c r="F14" s="162" t="s">
+        <v>731</v>
+      </c>
+      <c r="G14" s="165" t="s">
+        <v>731</v>
+      </c>
+      <c r="H14" s="164" t="s">
+        <v>731</v>
+      </c>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:9" ht="12.75">
+      <c r="A15" s="192" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15" s="189" t="s">
         <v>678</v>
       </c>
-      <c r="C12" s="163"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="37"/>
-    </row>
-    <row r="13" spans="1:9" ht="12.75">
-      <c r="A13" s="194" t="s">
-        <v>410</v>
-      </c>
-      <c r="B13" s="190" t="s">
-        <v>672</v>
-      </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="156" t="s">
+      <c r="C15" s="163" t="s">
+        <v>731</v>
+      </c>
+      <c r="D15" s="156" t="s">
         <v>703</v>
       </c>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="14" spans="1:9" ht="12.75">
-      <c r="A14" s="194" t="s">
-        <v>410</v>
-      </c>
-      <c r="B14" s="190" t="s">
-        <v>670</v>
-      </c>
-      <c r="C14" s="163"/>
-      <c r="D14" s="156" t="s">
-        <v>704</v>
-      </c>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="37"/>
-    </row>
-    <row r="15" spans="1:9" ht="12.75">
-      <c r="A15" s="194" t="s">
-        <v>410</v>
-      </c>
-      <c r="B15" s="190" t="s">
-        <v>679</v>
-      </c>
-      <c r="C15" s="163"/>
-      <c r="D15" s="156" t="s">
-        <v>705</v>
-      </c>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="164"/>
+      <c r="E15" s="162" t="s">
+        <v>739</v>
+      </c>
+      <c r="F15" s="162" t="s">
+        <v>731</v>
+      </c>
+      <c r="G15" s="165" t="s">
+        <v>731</v>
+      </c>
+      <c r="H15" s="164" t="s">
+        <v>731</v>
+      </c>
       <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:9" ht="12.75">
       <c r="A16" s="172" t="s">
         <v>411</v>
       </c>
-      <c r="B16" s="196"/>
+      <c r="B16" s="194"/>
       <c r="C16" s="163"/>
       <c r="D16" s="156"/>
       <c r="E16" s="162"/>
@@ -12148,101 +12711,161 @@
       <c r="I16" s="37"/>
     </row>
     <row r="17" spans="1:9" ht="12.75">
-      <c r="A17" s="188" t="s">
+      <c r="A17" s="187" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="190" t="s">
+      <c r="B17" s="189" t="s">
         <v>629</v>
       </c>
-      <c r="C17" s="156"/>
+      <c r="C17" s="156" t="s">
+        <v>727</v>
+      </c>
       <c r="D17" s="156" t="s">
+        <v>681</v>
+      </c>
+      <c r="E17" s="194" t="s">
+        <v>726</v>
+      </c>
+      <c r="F17" s="162" t="s">
+        <v>749</v>
+      </c>
+      <c r="G17" s="165" t="s">
+        <v>781</v>
+      </c>
+      <c r="H17" s="222" t="s">
+        <v>791</v>
+      </c>
+      <c r="I17" s="79"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75">
+      <c r="A18" s="187" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="189" t="s">
+        <v>633</v>
+      </c>
+      <c r="C18" s="224" t="s">
+        <v>730</v>
+      </c>
+      <c r="D18" s="263" t="s">
         <v>682</v>
       </c>
-      <c r="E17" s="196"/>
-      <c r="F17" s="196"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="79"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75">
-      <c r="A18" s="188" t="s">
+      <c r="E18" s="162" t="s">
+        <v>729</v>
+      </c>
+      <c r="F18" s="162" t="s">
+        <v>749</v>
+      </c>
+      <c r="G18" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H18" s="222" t="s">
+        <v>791</v>
+      </c>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75">
+      <c r="A19" s="187" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="190" t="s">
-        <v>633</v>
-      </c>
-      <c r="C18" s="265"/>
-      <c r="D18" s="265" t="s">
+      <c r="B19" s="191" t="s">
+        <v>634</v>
+      </c>
+      <c r="C19" s="163" t="s">
+        <v>728</v>
+      </c>
+      <c r="D19" s="261"/>
+      <c r="E19" s="162" t="s">
+        <v>725</v>
+      </c>
+      <c r="F19" s="162" t="s">
+        <v>749</v>
+      </c>
+      <c r="G19" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H19" s="222" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12.75">
+      <c r="A20" s="192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="189" t="s">
+        <v>655</v>
+      </c>
+      <c r="C20" s="156" t="s">
+        <v>723</v>
+      </c>
+      <c r="D20" s="156" t="s">
         <v>683</v>
       </c>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="37"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75">
-      <c r="A19" s="188" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="193" t="s">
-        <v>634</v>
-      </c>
-      <c r="C19" s="264"/>
-      <c r="D19" s="264"/>
-      <c r="E19" s="255"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="164"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.75">
-      <c r="A20" s="194" t="s">
+      <c r="E20" s="162" t="s">
+        <v>721</v>
+      </c>
+      <c r="F20" s="162" t="s">
+        <v>749</v>
+      </c>
+      <c r="G20" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H20" s="222" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12.75">
+      <c r="A21" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="190" t="s">
-        <v>655</v>
-      </c>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156" t="s">
-        <v>684</v>
-      </c>
-      <c r="E20" s="255"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="164"/>
-    </row>
-    <row r="21" spans="1:9" ht="12.75">
-      <c r="A21" s="194" t="s">
+      <c r="B21" s="189" t="s">
+        <v>656</v>
+      </c>
+      <c r="C21" s="156" t="s">
+        <v>724</v>
+      </c>
+      <c r="D21" s="156" t="s">
+        <v>683</v>
+      </c>
+      <c r="E21" s="162" t="s">
+        <v>722</v>
+      </c>
+      <c r="F21" s="162" t="s">
+        <v>749</v>
+      </c>
+      <c r="G21" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H21" s="222" t="s">
+        <v>791</v>
+      </c>
+      <c r="I21" s="37"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75">
+      <c r="A22" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="190" t="s">
-        <v>656</v>
-      </c>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156" t="s">
-        <v>684</v>
-      </c>
-      <c r="E21" s="255"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="37"/>
-    </row>
-    <row r="22" spans="1:9" ht="12.75">
-      <c r="A22" s="194" t="s">
-        <v>5</v>
-      </c>
       <c r="B22" s="166" t="s">
-        <v>681</v>
-      </c>
-      <c r="C22" s="156"/>
+        <v>680</v>
+      </c>
+      <c r="C22" s="156" t="s">
+        <v>731</v>
+      </c>
       <c r="D22" s="156" t="s">
         <v>628</v>
       </c>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="164"/>
+      <c r="E22" s="162" t="s">
+        <v>731</v>
+      </c>
+      <c r="F22" s="162" t="s">
+        <v>777</v>
+      </c>
+      <c r="G22" s="165" t="s">
+        <v>777</v>
+      </c>
+      <c r="H22" s="222" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="12.75">
       <c r="A23" s="172" t="s">
@@ -12256,69 +12879,109 @@
       <c r="G23" s="165"/>
       <c r="H23" s="164"/>
     </row>
-    <row r="24" spans="1:9" ht="12.75">
-      <c r="A24" s="188" t="s">
+    <row r="24" spans="1:9" ht="15">
+      <c r="A24" s="187" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="190" t="s">
+      <c r="B24" s="189" t="s">
         <v>636</v>
       </c>
-      <c r="C24" s="163"/>
+      <c r="C24" s="163" t="s">
+        <v>744</v>
+      </c>
       <c r="D24" s="159" t="s">
-        <v>701</v>
-      </c>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="164"/>
+        <v>699</v>
+      </c>
+      <c r="E24" s="169" t="s">
+        <v>746</v>
+      </c>
+      <c r="F24" s="162" t="s">
+        <v>749</v>
+      </c>
+      <c r="G24" s="173" t="s">
+        <v>750</v>
+      </c>
+      <c r="H24" s="222" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="12.75">
-      <c r="A25" s="188" t="s">
+      <c r="A25" s="187" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="190" t="s">
+      <c r="B25" s="189" t="s">
         <v>637</v>
       </c>
-      <c r="C25" s="163"/>
-      <c r="D25" s="199" t="s">
-        <v>682</v>
-      </c>
-      <c r="E25" s="196"/>
-      <c r="F25" s="196"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="198"/>
+      <c r="C25" s="163" t="s">
+        <v>745</v>
+      </c>
+      <c r="D25" s="197" t="s">
+        <v>681</v>
+      </c>
+      <c r="E25" s="162" t="s">
+        <v>747</v>
+      </c>
+      <c r="F25" s="162" t="s">
+        <v>749</v>
+      </c>
+      <c r="G25" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H25" s="222" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="25.5">
-      <c r="A26" s="194" t="s">
+      <c r="A26" s="192" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="166" t="s">
         <v>642</v>
       </c>
-      <c r="C26" s="163"/>
+      <c r="C26" s="163" t="s">
+        <v>744</v>
+      </c>
       <c r="D26" s="156" t="s">
-        <v>702</v>
-      </c>
-      <c r="E26" s="169"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="164"/>
+        <v>700</v>
+      </c>
+      <c r="E26" s="162" t="s">
+        <v>746</v>
+      </c>
+      <c r="F26" s="162" t="s">
+        <v>749</v>
+      </c>
+      <c r="G26" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H26" s="164" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="38.25">
-      <c r="A27" s="194" t="s">
+      <c r="A27" s="192" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="166" t="s">
         <v>640</v>
       </c>
-      <c r="C27" s="163"/>
+      <c r="C27" s="163" t="s">
+        <v>745</v>
+      </c>
       <c r="D27" s="156" t="s">
-        <v>682</v>
-      </c>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="164"/>
+        <v>681</v>
+      </c>
+      <c r="E27" s="162" t="s">
+        <v>748</v>
+      </c>
+      <c r="F27" s="162" t="s">
+        <v>749</v>
+      </c>
+      <c r="G27" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H27" s="222" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="25.5">
       <c r="A28" s="167" t="s">
@@ -12327,20 +12990,30 @@
       <c r="B28" s="166" t="s">
         <v>641</v>
       </c>
-      <c r="C28" s="163"/>
+      <c r="C28" s="163" t="s">
+        <v>744</v>
+      </c>
       <c r="D28" s="156" t="s">
-        <v>701</v>
-      </c>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="164"/>
+        <v>699</v>
+      </c>
+      <c r="E28" s="162" t="s">
+        <v>746</v>
+      </c>
+      <c r="F28" s="162" t="s">
+        <v>749</v>
+      </c>
+      <c r="G28" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H28" s="164" t="s">
+        <v>793</v>
+      </c>
       <c r="I28" s="79"/>
     </row>
     <row r="29" spans="1:9" ht="12.75">
       <c r="A29" s="168"/>
       <c r="B29" s="166"/>
-      <c r="C29" s="197"/>
+      <c r="C29" s="195"/>
       <c r="D29" s="156"/>
       <c r="E29" s="162"/>
       <c r="F29" s="162"/>
@@ -12375,493 +13048,731 @@
       </c>
       <c r="B32" s="175"/>
       <c r="C32" s="163"/>
-      <c r="D32" s="222" t="s">
-        <v>706</v>
-      </c>
+      <c r="D32" s="219"/>
       <c r="E32" s="162"/>
       <c r="F32" s="162"/>
       <c r="G32" s="165"/>
       <c r="H32" s="164"/>
     </row>
     <row r="33" spans="1:10" ht="12.75">
-      <c r="A33" s="194" t="s">
+      <c r="A33" s="192" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="173" t="s">
         <v>654</v>
       </c>
-      <c r="C33" s="163"/>
-      <c r="D33" s="222" t="s">
+      <c r="C33" s="163" t="s">
+        <v>754</v>
+      </c>
+      <c r="D33" s="219" t="s">
+        <v>704</v>
+      </c>
+      <c r="E33" s="162" t="s">
+        <v>751</v>
+      </c>
+      <c r="F33" s="189" t="s">
+        <v>794</v>
+      </c>
+      <c r="G33" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H33" s="164" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="12.75">
+      <c r="A34" s="192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="174" t="s">
+        <v>684</v>
+      </c>
+      <c r="C34" s="163" t="s">
+        <v>762</v>
+      </c>
+      <c r="D34" s="219" t="s">
+        <v>705</v>
+      </c>
+      <c r="E34" s="162" t="s">
+        <v>761</v>
+      </c>
+      <c r="F34" s="189" t="s">
+        <v>794</v>
+      </c>
+      <c r="G34" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H34" s="164" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="12.75">
+      <c r="A35" s="192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="176" t="s">
+        <v>649</v>
+      </c>
+      <c r="C35" s="163" t="s">
+        <v>756</v>
+      </c>
+      <c r="D35" s="219" t="s">
+        <v>706</v>
+      </c>
+      <c r="E35" s="162" t="s">
+        <v>761</v>
+      </c>
+      <c r="F35" s="189" t="s">
+        <v>794</v>
+      </c>
+      <c r="G35" s="181" t="s">
+        <v>750</v>
+      </c>
+      <c r="H35" s="200" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="12.75">
+      <c r="A36" s="192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="176" t="s">
+        <v>650</v>
+      </c>
+      <c r="C36" s="163" t="s">
+        <v>758</v>
+      </c>
+      <c r="D36" s="219" t="s">
         <v>707</v>
       </c>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="164"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.75">
-      <c r="A34" s="194" t="s">
+      <c r="E36" s="162" t="s">
+        <v>755</v>
+      </c>
+      <c r="F36" s="189" t="s">
+        <v>794</v>
+      </c>
+      <c r="G36" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H36" s="164" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="12.75">
+      <c r="A37" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="174" t="s">
-        <v>686</v>
-      </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="222" t="s">
+      <c r="B37" s="173" t="s">
+        <v>665</v>
+      </c>
+      <c r="C37" s="163" t="s">
+        <v>759</v>
+      </c>
+      <c r="D37" s="219" t="s">
         <v>708</v>
       </c>
-      <c r="E34" s="162"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="164"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.75">
-      <c r="A35" s="194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="176" t="s">
-        <v>685</v>
-      </c>
-      <c r="C35" s="164"/>
-      <c r="D35" s="222" t="s">
+      <c r="E37" s="175" t="s">
+        <v>757</v>
+      </c>
+      <c r="F37" s="189" t="s">
+        <v>794</v>
+      </c>
+      <c r="G37" s="175" t="s">
+        <v>785</v>
+      </c>
+      <c r="H37" s="226" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="12.75">
+      <c r="A38" s="193" t="s">
+        <v>635</v>
+      </c>
+      <c r="B38" s="165" t="s">
+        <v>651</v>
+      </c>
+      <c r="C38" s="198" t="s">
+        <v>760</v>
+      </c>
+      <c r="D38" s="182" t="s">
         <v>709</v>
       </c>
-      <c r="E35" s="201"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="202"/>
-    </row>
-    <row r="36" spans="1:10" ht="12.75">
-      <c r="A36" s="194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="176" t="s">
-        <v>649</v>
-      </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="222" t="s">
-        <v>710</v>
-      </c>
-      <c r="E36" s="162"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="164"/>
-    </row>
-    <row r="37" spans="1:10" ht="12.75">
-      <c r="A37" s="194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="176" t="s">
-        <v>650</v>
-      </c>
-      <c r="C37" s="163"/>
-      <c r="D37" s="222" t="s">
-        <v>711</v>
-      </c>
-      <c r="E37" s="175"/>
-      <c r="F37" s="175"/>
-      <c r="G37" s="175"/>
-      <c r="H37" s="198"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.75">
-      <c r="A38" s="195" t="s">
+      <c r="E38" s="165" t="s">
+        <v>726</v>
+      </c>
+      <c r="F38" s="189" t="s">
+        <v>794</v>
+      </c>
+      <c r="G38" s="173" t="s">
+        <v>785</v>
+      </c>
+      <c r="H38" s="164" t="s">
+        <v>796</v>
+      </c>
+      <c r="I38" s="79"/>
+    </row>
+    <row r="39" spans="1:10" ht="12.75">
+      <c r="A39" s="193" t="s">
         <v>635</v>
       </c>
-      <c r="B38" s="173" t="s">
-        <v>665</v>
-      </c>
-      <c r="C38" s="163"/>
-      <c r="D38" s="222" t="s">
-        <v>706</v>
-      </c>
-      <c r="E38" s="165"/>
-      <c r="F38" s="165"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="79"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.75">
-      <c r="A39" s="195" t="s">
+      <c r="B39" s="173" t="s">
+        <v>638</v>
+      </c>
+      <c r="C39" s="201" t="s">
+        <v>753</v>
+      </c>
+      <c r="D39" s="219" t="s">
+        <v>704</v>
+      </c>
+      <c r="E39" s="178" t="s">
+        <v>752</v>
+      </c>
+      <c r="F39" s="189" t="s">
+        <v>794</v>
+      </c>
+      <c r="G39" s="175" t="s">
+        <v>788</v>
+      </c>
+      <c r="H39" s="222" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="12.75">
+      <c r="A40" s="193" t="s">
         <v>635</v>
       </c>
-      <c r="B39" s="165" t="s">
-        <v>651</v>
-      </c>
-      <c r="C39" s="200"/>
-      <c r="D39" s="182" t="s">
-        <v>712</v>
-      </c>
-      <c r="E39" s="175"/>
-      <c r="F39" s="165"/>
-      <c r="G39" s="175"/>
-      <c r="H39" s="164"/>
-    </row>
-    <row r="40" spans="1:10" ht="12.75">
-      <c r="A40" s="195" t="s">
-        <v>635</v>
-      </c>
-      <c r="B40" s="173" t="s">
-        <v>638</v>
-      </c>
-      <c r="C40" s="203"/>
-      <c r="D40" s="222" t="s">
-        <v>706</v>
-      </c>
+      <c r="B40" s="173"/>
+      <c r="C40" s="201"/>
+      <c r="D40" s="219"/>
       <c r="E40" s="178"/>
       <c r="F40" s="165"/>
       <c r="G40" s="178"/>
       <c r="H40" s="164"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A41" s="194" t="s">
+      <c r="A41" s="192" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="173"/>
-      <c r="C41" s="198"/>
+      <c r="C41" s="196"/>
       <c r="D41" s="177"/>
       <c r="E41" s="180"/>
       <c r="F41" s="165"/>
-      <c r="G41" s="221"/>
+      <c r="G41" s="218"/>
       <c r="H41" s="164"/>
-      <c r="I41" s="256"/>
+      <c r="I41" s="262"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1">
       <c r="A42" s="171" t="s">
-        <v>687</v>
-      </c>
-      <c r="B42" s="196"/>
+        <v>685</v>
+      </c>
+      <c r="B42" s="194"/>
       <c r="C42" s="164"/>
       <c r="D42" s="179"/>
       <c r="E42" s="180"/>
       <c r="F42" s="165"/>
       <c r="G42" s="181"/>
       <c r="H42" s="164"/>
-      <c r="I42" s="256"/>
+      <c r="I42" s="262"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A43" s="195" t="s">
-        <v>673</v>
-      </c>
-      <c r="B43" s="204" t="s">
-        <v>688</v>
-      </c>
-      <c r="C43" s="164"/>
+      <c r="A43" s="193" t="s">
+        <v>672</v>
+      </c>
+      <c r="B43" s="202" t="s">
+        <v>686</v>
+      </c>
+      <c r="C43" s="269" t="s">
+        <v>823</v>
+      </c>
       <c r="D43" s="156" t="s">
-        <v>713</v>
-      </c>
-      <c r="E43" s="181"/>
+        <v>743</v>
+      </c>
+      <c r="E43" s="181" t="s">
+        <v>823</v>
+      </c>
       <c r="F43" s="165"/>
       <c r="G43" s="178"/>
       <c r="H43" s="164"/>
-      <c r="I43" s="256"/>
+      <c r="I43" s="262"/>
     </row>
     <row r="44" spans="1:10" ht="12.75">
-      <c r="A44" s="195" t="s">
-        <v>673</v>
-      </c>
-      <c r="B44" s="204" t="s">
+      <c r="A44" s="193" t="s">
+        <v>672</v>
+      </c>
+      <c r="B44" s="202" t="s">
+        <v>687</v>
+      </c>
+      <c r="C44" s="164" t="s">
+        <v>823</v>
+      </c>
+      <c r="D44" s="156" t="s">
+        <v>743</v>
+      </c>
+      <c r="E44" s="180" t="s">
+        <v>817</v>
+      </c>
+      <c r="F44" s="165" t="s">
+        <v>731</v>
+      </c>
+      <c r="G44" s="181" t="s">
+        <v>823</v>
+      </c>
+      <c r="H44" s="183" t="s">
+        <v>823</v>
+      </c>
+      <c r="I44" s="262"/>
+    </row>
+    <row r="45" spans="1:10" ht="12.75">
+      <c r="A45" s="193" t="s">
+        <v>672</v>
+      </c>
+      <c r="B45" s="202" t="s">
+        <v>688</v>
+      </c>
+      <c r="C45" s="164" t="s">
+        <v>823</v>
+      </c>
+      <c r="D45" s="156" t="s">
+        <v>743</v>
+      </c>
+      <c r="E45" s="180" t="s">
+        <v>817</v>
+      </c>
+      <c r="F45" s="165" t="s">
+        <v>731</v>
+      </c>
+      <c r="G45" s="181" t="s">
+        <v>823</v>
+      </c>
+      <c r="H45" s="183" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A46" s="193" t="s">
+        <v>672</v>
+      </c>
+      <c r="B46" s="202" t="s">
         <v>689</v>
       </c>
-      <c r="C44" s="164"/>
-      <c r="D44" s="156" t="s">
-        <v>713</v>
-      </c>
-      <c r="E44" s="180"/>
-      <c r="F44" s="165"/>
-      <c r="G44" s="181"/>
-      <c r="H44" s="183"/>
-      <c r="I44" s="256"/>
-    </row>
-    <row r="45" spans="1:10" ht="12.75">
-      <c r="A45" s="195" t="s">
-        <v>673</v>
-      </c>
-      <c r="B45" s="204" t="s">
+      <c r="C46" s="164" t="s">
+        <v>824</v>
+      </c>
+      <c r="D46" s="156" t="s">
+        <v>743</v>
+      </c>
+      <c r="E46" s="180" t="s">
+        <v>817</v>
+      </c>
+      <c r="F46" s="165" t="s">
+        <v>790</v>
+      </c>
+      <c r="G46" s="185" t="s">
+        <v>781</v>
+      </c>
+      <c r="H46" s="183" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="25.5">
+      <c r="A47" s="193" t="s">
+        <v>672</v>
+      </c>
+      <c r="B47" s="189" t="s">
         <v>690</v>
       </c>
-      <c r="C45" s="164"/>
-      <c r="D45" s="156" t="s">
-        <v>713</v>
-      </c>
-      <c r="E45" s="180"/>
-      <c r="F45" s="165"/>
-      <c r="G45" s="181"/>
-      <c r="H45" s="183"/>
-    </row>
-    <row r="46" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A46" s="195" t="s">
-        <v>673</v>
-      </c>
-      <c r="B46" s="204" t="s">
+      <c r="C47" s="223" t="s">
+        <v>824</v>
+      </c>
+      <c r="D47" s="156" t="s">
+        <v>743</v>
+      </c>
+      <c r="E47" s="194" t="s">
+        <v>822</v>
+      </c>
+      <c r="F47" s="162" t="s">
+        <v>789</v>
+      </c>
+      <c r="G47" s="181" t="s">
+        <v>750</v>
+      </c>
+      <c r="H47" s="183" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="12.75">
+      <c r="A48" s="193" t="s">
+        <v>672</v>
+      </c>
+      <c r="B48" s="220" t="s">
         <v>691</v>
       </c>
-      <c r="C46" s="164"/>
-      <c r="D46" s="156" t="s">
-        <v>713</v>
-      </c>
-      <c r="E46" s="185"/>
-      <c r="F46" s="165"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="183"/>
-    </row>
-    <row r="47" spans="1:10" ht="12.75">
-      <c r="A47" s="195" t="s">
-        <v>673</v>
-      </c>
-      <c r="B47" s="190" t="s">
-        <v>692</v>
-      </c>
-      <c r="C47" s="164"/>
-      <c r="D47" s="156" t="s">
-        <v>713</v>
-      </c>
-      <c r="E47" s="196"/>
-      <c r="F47" s="162"/>
-      <c r="G47" s="181"/>
-      <c r="H47" s="198"/>
-    </row>
-    <row r="48" spans="1:10" ht="12.75">
-      <c r="A48" s="195" t="s">
-        <v>673</v>
-      </c>
-      <c r="B48" s="263" t="s">
-        <v>693</v>
-      </c>
-      <c r="C48" s="164"/>
+      <c r="C48" s="164" t="s">
+        <v>820</v>
+      </c>
       <c r="D48" s="156" t="s">
-        <v>713</v>
-      </c>
-      <c r="E48" s="206"/>
-      <c r="F48" s="196"/>
-      <c r="G48" s="175"/>
-      <c r="H48" s="207"/>
+        <v>743</v>
+      </c>
+      <c r="E48" s="204" t="s">
+        <v>819</v>
+      </c>
+      <c r="F48" s="165" t="s">
+        <v>790</v>
+      </c>
+      <c r="G48" s="175" t="s">
+        <v>781</v>
+      </c>
+      <c r="H48" s="205" t="s">
+        <v>834</v>
+      </c>
       <c r="I48" s="80"/>
       <c r="J48" s="158"/>
     </row>
     <row r="49" spans="1:10" ht="12.75">
-      <c r="A49" s="195" t="s">
-        <v>673</v>
-      </c>
-      <c r="B49" s="266" t="s">
-        <v>694</v>
-      </c>
-      <c r="C49" s="164"/>
+      <c r="A49" s="193" t="s">
+        <v>672</v>
+      </c>
+      <c r="B49" s="221" t="s">
+        <v>692</v>
+      </c>
+      <c r="C49" s="164" t="s">
+        <v>821</v>
+      </c>
       <c r="D49" s="156" t="s">
-        <v>713</v>
-      </c>
-      <c r="E49" s="209"/>
-      <c r="F49" s="189"/>
-      <c r="G49" s="181"/>
-      <c r="H49" s="210"/>
+        <v>743</v>
+      </c>
+      <c r="E49" s="207" t="s">
+        <v>818</v>
+      </c>
+      <c r="F49" s="165" t="s">
+        <v>790</v>
+      </c>
+      <c r="G49" s="181" t="s">
+        <v>750</v>
+      </c>
+      <c r="H49" s="205" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="50" spans="1:10" ht="12.75">
-      <c r="A50" s="195" t="s">
-        <v>673</v>
-      </c>
-      <c r="B50" s="204" t="s">
-        <v>695</v>
-      </c>
-      <c r="C50" s="184"/>
+      <c r="A50" s="193" t="s">
+        <v>672</v>
+      </c>
+      <c r="B50" s="202" t="s">
+        <v>693</v>
+      </c>
+      <c r="C50" s="184" t="s">
+        <v>826</v>
+      </c>
       <c r="D50" s="156" t="s">
-        <v>713</v>
-      </c>
-      <c r="E50" s="206"/>
-      <c r="F50" s="196"/>
-      <c r="G50" s="175"/>
-      <c r="H50" s="207"/>
+        <v>743</v>
+      </c>
+      <c r="E50" s="204" t="s">
+        <v>825</v>
+      </c>
+      <c r="F50" s="165" t="s">
+        <v>790</v>
+      </c>
+      <c r="G50" s="175" t="s">
+        <v>750</v>
+      </c>
+      <c r="H50" s="205" t="s">
+        <v>835</v>
+      </c>
       <c r="I50" s="79"/>
       <c r="J50" s="80"/>
     </row>
     <row r="51" spans="1:10" ht="12.75">
-      <c r="A51" s="195" t="s">
-        <v>673</v>
-      </c>
-      <c r="B51" s="190" t="s">
-        <v>696</v>
-      </c>
-      <c r="C51" s="197"/>
+      <c r="A51" s="193" t="s">
+        <v>672</v>
+      </c>
+      <c r="B51" s="189" t="s">
+        <v>694</v>
+      </c>
+      <c r="C51" s="164" t="s">
+        <v>830</v>
+      </c>
       <c r="D51" s="156" t="s">
-        <v>713</v>
-      </c>
-      <c r="E51" s="209"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="211"/>
-      <c r="H51" s="210"/>
+        <v>743</v>
+      </c>
+      <c r="E51" s="207" t="s">
+        <v>829</v>
+      </c>
+      <c r="F51" s="165" t="s">
+        <v>790</v>
+      </c>
+      <c r="G51" s="208" t="s">
+        <v>781</v>
+      </c>
+      <c r="H51" s="205" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="52" spans="1:10" ht="12.75">
-      <c r="A52" s="195" t="s">
-        <v>673</v>
-      </c>
-      <c r="B52" s="190" t="s">
+      <c r="A52" s="193" t="s">
+        <v>672</v>
+      </c>
+      <c r="B52" s="189" t="s">
+        <v>695</v>
+      </c>
+      <c r="C52" s="203" t="s">
+        <v>828</v>
+      </c>
+      <c r="D52" s="156" t="s">
+        <v>743</v>
+      </c>
+      <c r="E52" s="199" t="s">
+        <v>827</v>
+      </c>
+      <c r="F52" s="165" t="s">
+        <v>790</v>
+      </c>
+      <c r="G52" s="208" t="s">
+        <v>788</v>
+      </c>
+      <c r="H52" s="205" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="12.75">
+      <c r="A53" s="193" t="s">
+        <v>672</v>
+      </c>
+      <c r="B53" s="189" t="s">
         <v>697</v>
       </c>
-      <c r="C52" s="205"/>
-      <c r="D52" s="156" t="s">
-        <v>713</v>
-      </c>
-      <c r="E52" s="201"/>
-      <c r="F52" s="162"/>
-      <c r="G52" s="211"/>
-      <c r="H52" s="202"/>
-    </row>
-    <row r="53" spans="1:10" ht="12.75">
-      <c r="A53" s="195" t="s">
-        <v>673</v>
-      </c>
-      <c r="B53" s="190" t="s">
-        <v>699</v>
-      </c>
-      <c r="C53" s="218"/>
+      <c r="C53" s="215" t="s">
+        <v>832</v>
+      </c>
       <c r="D53" s="156" t="s">
-        <v>713</v>
-      </c>
-      <c r="E53" s="196"/>
-      <c r="F53" s="162"/>
-      <c r="G53" s="211"/>
-      <c r="H53" s="198"/>
+        <v>743</v>
+      </c>
+      <c r="E53" s="194" t="s">
+        <v>831</v>
+      </c>
+      <c r="F53" s="165" t="s">
+        <v>790</v>
+      </c>
+      <c r="G53" s="208" t="s">
+        <v>750</v>
+      </c>
+      <c r="H53" s="205" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="54" spans="1:10" ht="12.75">
       <c r="A54" s="171" t="s">
         <v>647</v>
       </c>
-      <c r="B54" s="196"/>
-      <c r="C54" s="205"/>
+      <c r="B54" s="194"/>
+      <c r="C54" s="203"/>
       <c r="D54" s="156"/>
-      <c r="E54" s="209"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="214"/>
-      <c r="H54" s="202"/>
+      <c r="E54" s="207"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="211"/>
+      <c r="H54" s="200"/>
     </row>
     <row r="55" spans="1:10" ht="12.75">
-      <c r="A55" s="194" t="s">
+      <c r="A55" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="190" t="s">
+      <c r="B55" s="189" t="s">
         <v>645</v>
       </c>
-      <c r="C55" s="208"/>
+      <c r="C55" s="206" t="s">
+        <v>731</v>
+      </c>
       <c r="D55" s="156" t="s">
-        <v>714</v>
-      </c>
-      <c r="E55" s="209"/>
-      <c r="F55" s="162"/>
-      <c r="G55" s="165"/>
-      <c r="H55" s="216"/>
+        <v>710</v>
+      </c>
+      <c r="E55" s="212" t="s">
+        <v>765</v>
+      </c>
+      <c r="F55" s="162" t="s">
+        <v>731</v>
+      </c>
+      <c r="G55" s="165" t="s">
+        <v>731</v>
+      </c>
+      <c r="H55" s="213" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="56" spans="1:10" ht="12.75">
-      <c r="A56" s="194" t="s">
+      <c r="A56" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="190" t="s">
+      <c r="B56" s="189" t="s">
         <v>667</v>
       </c>
-      <c r="C56" s="212"/>
+      <c r="C56" s="209" t="s">
+        <v>769</v>
+      </c>
       <c r="D56" s="156" t="s">
-        <v>715</v>
-      </c>
-      <c r="E56" s="209"/>
-      <c r="F56" s="196"/>
-      <c r="G56" s="214"/>
-      <c r="H56" s="202"/>
+        <v>711</v>
+      </c>
+      <c r="E56" s="207" t="s">
+        <v>768</v>
+      </c>
+      <c r="F56" s="162" t="s">
+        <v>816</v>
+      </c>
+      <c r="G56" s="211" t="s">
+        <v>750</v>
+      </c>
+      <c r="H56" s="200" t="s">
+        <v>792</v>
+      </c>
       <c r="I56" s="161"/>
       <c r="J56" s="158"/>
     </row>
     <row r="57" spans="1:10" ht="12.75">
-      <c r="A57" s="195" t="s">
+      <c r="A57" s="193" t="s">
         <v>635</v>
       </c>
-      <c r="B57" s="190" t="s">
+      <c r="B57" s="189" t="s">
         <v>668</v>
       </c>
-      <c r="C57" s="197"/>
+      <c r="C57" s="195" t="s">
+        <v>764</v>
+      </c>
       <c r="D57" s="156" t="s">
-        <v>715</v>
-      </c>
-      <c r="E57" s="215"/>
-      <c r="F57" s="162"/>
-      <c r="G57" s="165"/>
-      <c r="H57" s="216"/>
+        <v>711</v>
+      </c>
+      <c r="E57" s="212" t="s">
+        <v>763</v>
+      </c>
+      <c r="F57" s="162" t="s">
+        <v>816</v>
+      </c>
+      <c r="G57" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H57" s="200" t="s">
+        <v>792</v>
+      </c>
       <c r="I57" s="161"/>
       <c r="J57" s="158"/>
     </row>
     <row r="58" spans="1:10" ht="12.75">
-      <c r="A58" s="194" t="s">
+      <c r="A58" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="190" t="s">
+      <c r="B58" s="189" t="s">
         <v>644</v>
       </c>
-      <c r="C58" s="213"/>
+      <c r="C58" s="210" t="s">
+        <v>767</v>
+      </c>
       <c r="D58" s="156" t="s">
-        <v>704</v>
-      </c>
-      <c r="E58" s="215"/>
-      <c r="F58" s="162"/>
-      <c r="G58" s="165"/>
-      <c r="H58" s="216"/>
+        <v>702</v>
+      </c>
+      <c r="E58" s="212" t="s">
+        <v>766</v>
+      </c>
+      <c r="F58" s="162" t="s">
+        <v>816</v>
+      </c>
+      <c r="G58" s="165" t="s">
+        <v>785</v>
+      </c>
+      <c r="H58" s="200" t="s">
+        <v>792</v>
+      </c>
       <c r="I58" s="161"/>
       <c r="J58" s="158"/>
     </row>
     <row r="59" spans="1:10" ht="12.75">
-      <c r="A59" s="194" t="s">
+      <c r="A59" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="190" t="s">
+      <c r="B59" s="189" t="s">
         <v>643</v>
       </c>
-      <c r="C59" s="218"/>
+      <c r="C59" s="215" t="s">
+        <v>773</v>
+      </c>
       <c r="D59" s="156" t="s">
-        <v>716</v>
-      </c>
-      <c r="E59" s="196"/>
-      <c r="F59" s="162"/>
-      <c r="G59" s="165"/>
-      <c r="H59" s="198"/>
+        <v>712</v>
+      </c>
+      <c r="E59" s="194" t="s">
+        <v>772</v>
+      </c>
+      <c r="F59" s="162" t="s">
+        <v>816</v>
+      </c>
+      <c r="G59" s="165" t="s">
+        <v>785</v>
+      </c>
+      <c r="H59" s="200" t="s">
+        <v>792</v>
+      </c>
       <c r="I59" s="79"/>
       <c r="J59" s="80"/>
     </row>
     <row r="60" spans="1:10" ht="12.75">
-      <c r="A60" s="194" t="s">
+      <c r="A60" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="190" t="s">
+      <c r="B60" s="189" t="s">
         <v>646</v>
       </c>
-      <c r="C60" s="213"/>
+      <c r="C60" s="210" t="s">
+        <v>771</v>
+      </c>
       <c r="D60" s="156" t="s">
-        <v>717</v>
-      </c>
-      <c r="E60" s="162"/>
-      <c r="F60" s="162"/>
-      <c r="G60" s="165"/>
-      <c r="H60" s="164"/>
+        <v>713</v>
+      </c>
+      <c r="E60" s="162" t="s">
+        <v>770</v>
+      </c>
+      <c r="F60" s="162" t="s">
+        <v>816</v>
+      </c>
+      <c r="G60" s="165" t="s">
+        <v>788</v>
+      </c>
+      <c r="H60" s="200" t="s">
+        <v>792</v>
+      </c>
       <c r="I60" s="80"/>
       <c r="J60" s="158"/>
     </row>
     <row r="61" spans="1:10" ht="12.75">
-      <c r="A61" s="194" t="s">
+      <c r="A61" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="263" t="s">
-        <v>698</v>
-      </c>
-      <c r="C61" s="213"/>
-      <c r="D61" s="222" t="s">
-        <v>716</v>
-      </c>
-      <c r="E61" s="219"/>
-      <c r="F61" s="196"/>
-      <c r="G61" s="175"/>
-      <c r="H61" s="164"/>
+      <c r="B61" s="220" t="s">
+        <v>696</v>
+      </c>
+      <c r="C61" s="210" t="s">
+        <v>775</v>
+      </c>
+      <c r="D61" s="219" t="s">
+        <v>712</v>
+      </c>
+      <c r="E61" s="216" t="s">
+        <v>774</v>
+      </c>
+      <c r="F61" s="162" t="s">
+        <v>816</v>
+      </c>
+      <c r="G61" s="175" t="s">
+        <v>781</v>
+      </c>
+      <c r="H61" s="200" t="s">
+        <v>792</v>
+      </c>
       <c r="I61" s="160"/>
       <c r="J61" s="80"/>
     </row>
     <row r="62" spans="1:10" ht="12.75">
-      <c r="A62" s="194" t="s">
+      <c r="A62" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="190"/>
-      <c r="C62" s="213"/>
+      <c r="B62" s="189"/>
+      <c r="C62" s="210"/>
       <c r="D62" s="156"/>
       <c r="E62" s="162"/>
       <c r="F62" s="162"/>
@@ -12874,8 +13785,8 @@
       <c r="A63" s="171" t="s">
         <v>657</v>
       </c>
-      <c r="B63" s="196"/>
-      <c r="C63" s="197"/>
+      <c r="B63" s="194"/>
+      <c r="C63" s="195"/>
       <c r="D63" s="156"/>
       <c r="E63" s="162"/>
       <c r="F63" s="162"/>
@@ -12884,39 +13795,59 @@
       <c r="I63" s="160"/>
       <c r="J63" s="80"/>
     </row>
-    <row r="64" spans="1:10" ht="12.75">
-      <c r="A64" s="194" t="s">
+    <row r="64" spans="1:10" ht="15">
+      <c r="A64" s="192" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="162" t="s">
         <v>653</v>
       </c>
-      <c r="C64" s="163"/>
+      <c r="C64" s="163" t="s">
+        <v>776</v>
+      </c>
       <c r="D64" s="156" t="s">
-        <v>703</v>
-      </c>
-      <c r="E64" s="162"/>
-      <c r="F64" s="162"/>
-      <c r="G64" s="165"/>
-      <c r="H64" s="164"/>
+        <v>701</v>
+      </c>
+      <c r="E64" s="169" t="s">
+        <v>777</v>
+      </c>
+      <c r="F64" s="169" t="s">
+        <v>778</v>
+      </c>
+      <c r="G64" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H64" s="222" t="s">
+        <v>808</v>
+      </c>
       <c r="I64" s="80"/>
       <c r="J64" s="158"/>
     </row>
-    <row r="65" spans="1:14" ht="12.75">
-      <c r="A65" s="194" t="s">
+    <row r="65" spans="1:14" ht="15">
+      <c r="A65" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="190" t="s">
+      <c r="B65" s="189" t="s">
         <v>658</v>
       </c>
-      <c r="C65" s="163"/>
+      <c r="C65" s="163" t="s">
+        <v>779</v>
+      </c>
       <c r="D65" s="156" t="s">
-        <v>718</v>
-      </c>
-      <c r="E65" s="162"/>
-      <c r="F65" s="162"/>
-      <c r="G65" s="165"/>
-      <c r="H65" s="164"/>
+        <v>714</v>
+      </c>
+      <c r="E65" s="162" t="s">
+        <v>780</v>
+      </c>
+      <c r="F65" s="169" t="s">
+        <v>778</v>
+      </c>
+      <c r="G65" s="173" t="s">
+        <v>781</v>
+      </c>
+      <c r="H65" s="222" t="s">
+        <v>808</v>
+      </c>
       <c r="I65" s="79"/>
       <c r="J65" s="80"/>
       <c r="K65" s="80"/>
@@ -12924,300 +13855,420 @@
       <c r="M65" s="80"/>
       <c r="N65" s="80"/>
     </row>
-    <row r="66" spans="1:14" ht="12.75">
-      <c r="A66" s="194" t="s">
+    <row r="66" spans="1:14" ht="15">
+      <c r="A66" s="192" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="162" t="s">
         <v>659</v>
       </c>
-      <c r="C66" s="163"/>
+      <c r="C66" s="163" t="s">
+        <v>782</v>
+      </c>
       <c r="D66" s="156" t="s">
-        <v>719</v>
-      </c>
-      <c r="E66" s="196"/>
-      <c r="F66" s="170"/>
-      <c r="G66" s="170"/>
-      <c r="H66" s="198"/>
+        <v>715</v>
+      </c>
+      <c r="E66" s="188" t="s">
+        <v>777</v>
+      </c>
+      <c r="F66" s="169" t="s">
+        <v>778</v>
+      </c>
+      <c r="G66" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H66" s="222" t="s">
+        <v>808</v>
+      </c>
       <c r="I66" s="80"/>
       <c r="J66" s="80"/>
     </row>
-    <row r="67" spans="1:14" ht="12.75">
-      <c r="A67" s="194" t="s">
+    <row r="67" spans="1:14" ht="15">
+      <c r="A67" s="192" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="162" t="s">
         <v>660</v>
       </c>
-      <c r="C67" s="163"/>
+      <c r="C67" s="163" t="s">
+        <v>779</v>
+      </c>
       <c r="D67" s="156" t="s">
-        <v>718</v>
-      </c>
-      <c r="E67" s="162"/>
-      <c r="F67" s="220"/>
-      <c r="G67" s="219"/>
-      <c r="H67" s="164"/>
+        <v>714</v>
+      </c>
+      <c r="E67" s="162" t="s">
+        <v>780</v>
+      </c>
+      <c r="F67" s="169" t="s">
+        <v>778</v>
+      </c>
+      <c r="G67" s="165" t="s">
+        <v>781</v>
+      </c>
+      <c r="H67" s="222" t="s">
+        <v>808</v>
+      </c>
       <c r="I67" s="80"/>
       <c r="J67" s="80"/>
     </row>
-    <row r="68" spans="1:14" ht="12.75">
-      <c r="A68" s="194" t="s">
+    <row r="68" spans="1:14" ht="15">
+      <c r="A68" s="192" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="162" t="s">
         <v>661</v>
       </c>
-      <c r="C68" s="163"/>
+      <c r="C68" s="163" t="s">
+        <v>783</v>
+      </c>
       <c r="D68" s="156" t="s">
-        <v>719</v>
-      </c>
-      <c r="E68" s="162"/>
-      <c r="F68" s="220"/>
-      <c r="G68" s="219"/>
-      <c r="H68" s="164"/>
+        <v>715</v>
+      </c>
+      <c r="E68" s="162" t="s">
+        <v>784</v>
+      </c>
+      <c r="F68" s="169" t="s">
+        <v>778</v>
+      </c>
+      <c r="G68" s="165" t="s">
+        <v>785</v>
+      </c>
+      <c r="H68" s="222" t="s">
+        <v>809</v>
+      </c>
       <c r="I68" s="80"/>
       <c r="J68" s="80"/>
     </row>
-    <row r="69" spans="1:14" ht="12.75">
-      <c r="A69" s="194" t="s">
+    <row r="69" spans="1:14" ht="15">
+      <c r="A69" s="192" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="162" t="s">
         <v>662</v>
       </c>
-      <c r="C69" s="163"/>
+      <c r="C69" s="195" t="s">
+        <v>786</v>
+      </c>
       <c r="D69" s="156" t="s">
-        <v>719</v>
-      </c>
-      <c r="E69" s="162"/>
-      <c r="F69" s="220"/>
-      <c r="G69" s="219"/>
-      <c r="H69" s="164"/>
+        <v>715</v>
+      </c>
+      <c r="E69" s="194" t="s">
+        <v>787</v>
+      </c>
+      <c r="F69" s="169" t="s">
+        <v>778</v>
+      </c>
+      <c r="G69" s="165" t="s">
+        <v>788</v>
+      </c>
+      <c r="H69" s="222" t="s">
+        <v>809</v>
+      </c>
       <c r="I69" s="80"/>
       <c r="J69" s="80"/>
     </row>
     <row r="70" spans="1:14" ht="12.75">
-      <c r="A70" s="194" t="s">
+      <c r="A70" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="190"/>
-      <c r="C70" s="197"/>
+      <c r="B70" s="189"/>
+      <c r="C70" s="195"/>
       <c r="D70" s="156"/>
       <c r="E70" s="162"/>
-      <c r="F70" s="220"/>
-      <c r="G70" s="219"/>
+      <c r="F70" s="217"/>
+      <c r="G70" s="216"/>
       <c r="H70" s="164"/>
       <c r="I70" s="80"/>
       <c r="J70" s="80"/>
     </row>
     <row r="71" spans="1:14" ht="12.75">
-      <c r="A71" s="194" t="s">
+      <c r="A71" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="190"/>
+      <c r="B71" s="189"/>
       <c r="C71" s="163"/>
       <c r="D71" s="156"/>
       <c r="E71" s="162"/>
-      <c r="F71" s="220"/>
+      <c r="F71" s="217"/>
       <c r="G71" s="165"/>
       <c r="H71" s="164"/>
       <c r="I71" s="79"/>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A72" s="194" t="s">
+      <c r="A72" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="190"/>
+      <c r="B72" s="189"/>
       <c r="C72" s="163"/>
       <c r="D72" s="156"/>
       <c r="E72" s="162"/>
-      <c r="F72" s="220"/>
+      <c r="F72" s="217"/>
       <c r="G72" s="165"/>
-      <c r="H72" s="219"/>
+      <c r="H72" s="216"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A73" s="194" t="s">
+      <c r="A73" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="190"/>
+      <c r="B73" s="189"/>
       <c r="C73" s="163"/>
       <c r="D73" s="156"/>
-      <c r="E73" s="219"/>
-      <c r="F73" s="220"/>
+      <c r="E73" s="216"/>
+      <c r="F73" s="217"/>
       <c r="G73" s="165"/>
-      <c r="H73" s="219"/>
+      <c r="H73" s="216"/>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A74" s="195" t="s">
+      <c r="A74" s="193" t="s">
         <v>635</v>
       </c>
-      <c r="B74" s="190"/>
+      <c r="B74" s="189"/>
       <c r="C74" s="163"/>
       <c r="D74" s="156"/>
-      <c r="E74" s="219"/>
+      <c r="E74" s="216"/>
       <c r="F74" s="162"/>
       <c r="G74" s="165"/>
-      <c r="H74" s="219"/>
+      <c r="H74" s="216"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A75" s="195" t="s">
+      <c r="A75" s="193" t="s">
         <v>635</v>
       </c>
-      <c r="B75" s="190"/>
+      <c r="B75" s="189"/>
       <c r="C75" s="163"/>
       <c r="D75" s="156"/>
-      <c r="E75" s="219"/>
-      <c r="F75" s="220"/>
+      <c r="E75" s="216"/>
+      <c r="F75" s="217"/>
       <c r="G75" s="175"/>
-      <c r="H75" s="219"/>
+      <c r="H75" s="216"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A76" s="217" t="s">
+      <c r="A76" s="214" t="s">
         <v>414</v>
       </c>
-      <c r="B76" s="196"/>
+      <c r="B76" s="194"/>
       <c r="C76" s="163"/>
       <c r="D76" s="156"/>
-      <c r="E76" s="219"/>
-      <c r="F76" s="220"/>
+      <c r="E76" s="216"/>
+      <c r="F76" s="217"/>
       <c r="G76" s="165"/>
       <c r="H76" s="164"/>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A77" s="187" t="s">
+      <c r="A77" s="186" t="s">
         <v>648</v>
       </c>
       <c r="B77" s="162" t="s">
         <v>652</v>
       </c>
-      <c r="C77" s="219"/>
+      <c r="C77" s="163" t="s">
+        <v>798</v>
+      </c>
       <c r="D77" s="156" t="s">
-        <v>720</v>
-      </c>
-      <c r="E77" s="219"/>
-      <c r="F77" s="220"/>
-      <c r="G77" s="165"/>
-      <c r="H77" s="164"/>
+        <v>716</v>
+      </c>
+      <c r="E77" s="169" t="s">
+        <v>799</v>
+      </c>
+      <c r="F77" s="162" t="s">
+        <v>800</v>
+      </c>
+      <c r="G77" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H77" s="222" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="78" spans="1:14" ht="12.75">
-      <c r="A78" s="188" t="s">
+      <c r="A78" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="B78" s="190" t="s">
+      <c r="B78" s="189" t="s">
         <v>666</v>
       </c>
-      <c r="C78" s="219"/>
+      <c r="C78" s="163" t="s">
+        <v>811</v>
+      </c>
       <c r="D78" s="156" t="s">
-        <v>720</v>
-      </c>
-      <c r="E78" s="162"/>
-      <c r="F78" s="220"/>
-      <c r="G78" s="165"/>
-      <c r="H78" s="164"/>
+        <v>716</v>
+      </c>
+      <c r="E78" s="162" t="s">
+        <v>810</v>
+      </c>
+      <c r="F78" s="162" t="s">
+        <v>800</v>
+      </c>
+      <c r="G78" s="173" t="s">
+        <v>788</v>
+      </c>
+      <c r="H78" s="222" t="s">
+        <v>805</v>
+      </c>
       <c r="I78" s="79"/>
     </row>
     <row r="79" spans="1:14" ht="12.75">
-      <c r="A79" s="188" t="s">
+      <c r="A79" s="187" t="s">
         <v>116</v>
       </c>
       <c r="B79" s="162" t="s">
         <v>398</v>
       </c>
-      <c r="C79" s="219"/>
+      <c r="C79" s="163" t="s">
+        <v>801</v>
+      </c>
       <c r="D79" s="156" t="s">
-        <v>721</v>
-      </c>
-      <c r="E79" s="162"/>
-      <c r="F79" s="220"/>
-      <c r="G79" s="165"/>
-      <c r="H79" s="164"/>
+        <v>717</v>
+      </c>
+      <c r="E79" s="162" t="s">
+        <v>802</v>
+      </c>
+      <c r="F79" s="162" t="s">
+        <v>800</v>
+      </c>
+      <c r="G79" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H79" s="222" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="80" spans="1:14" ht="12.75">
-      <c r="A80" s="188" t="s">
+      <c r="A80" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="B80" s="190" t="s">
+      <c r="B80" s="189" t="s">
         <v>664</v>
       </c>
-      <c r="C80" s="219"/>
+      <c r="C80" s="163" t="s">
+        <v>803</v>
+      </c>
       <c r="D80" s="156" t="s">
-        <v>722</v>
-      </c>
-      <c r="E80" s="196"/>
-      <c r="F80" s="220"/>
-      <c r="G80" s="165"/>
-      <c r="H80" s="164"/>
+        <v>718</v>
+      </c>
+      <c r="E80" s="188" t="s">
+        <v>804</v>
+      </c>
+      <c r="F80" s="162" t="s">
+        <v>800</v>
+      </c>
+      <c r="G80" s="173" t="s">
+        <v>788</v>
+      </c>
+      <c r="H80" s="222" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="81" spans="1:9" ht="12.75">
-      <c r="A81" s="188" t="s">
+      <c r="A81" s="187" t="s">
         <v>116</v>
       </c>
       <c r="B81" s="162" t="s">
         <v>653</v>
       </c>
-      <c r="C81" s="219"/>
+      <c r="C81" s="163" t="s">
+        <v>806</v>
+      </c>
       <c r="D81" s="156" t="s">
-        <v>722</v>
-      </c>
-      <c r="E81" s="196"/>
-      <c r="F81" s="162"/>
-      <c r="G81" s="165"/>
-      <c r="H81" s="198"/>
+        <v>718</v>
+      </c>
+      <c r="E81" s="188" t="s">
+        <v>777</v>
+      </c>
+      <c r="F81" s="162" t="s">
+        <v>800</v>
+      </c>
+      <c r="G81" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="H81" s="222" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="12.75">
-      <c r="A82" s="188" t="s">
+      <c r="A82" s="187" t="s">
         <v>116</v>
       </c>
       <c r="B82" s="162" t="s">
         <v>663</v>
       </c>
-      <c r="C82" s="219"/>
+      <c r="C82" s="163" t="s">
+        <v>807</v>
+      </c>
       <c r="D82" s="156" t="s">
-        <v>723</v>
-      </c>
-      <c r="E82" s="162"/>
-      <c r="F82" s="190"/>
-      <c r="G82" s="165"/>
-      <c r="H82" s="164"/>
+        <v>719</v>
+      </c>
+      <c r="E82" s="162" t="s">
+        <v>780</v>
+      </c>
+      <c r="F82" s="162" t="s">
+        <v>800</v>
+      </c>
+      <c r="G82" s="173" t="s">
+        <v>781</v>
+      </c>
+      <c r="H82" s="222" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="12.75">
-      <c r="A83" s="188" t="s">
+      <c r="A83" s="187" t="s">
         <v>116</v>
       </c>
       <c r="B83" s="162" t="s">
         <v>662</v>
       </c>
-      <c r="C83" s="219"/>
+      <c r="C83" s="195" t="s">
+        <v>786</v>
+      </c>
       <c r="D83" s="156" t="s">
-        <v>722</v>
-      </c>
-      <c r="E83" s="162"/>
-      <c r="F83" s="162"/>
-      <c r="G83" s="165"/>
-      <c r="H83" s="164"/>
+        <v>718</v>
+      </c>
+      <c r="E83" s="194" t="s">
+        <v>787</v>
+      </c>
+      <c r="F83" s="162" t="s">
+        <v>800</v>
+      </c>
+      <c r="G83" s="173" t="s">
+        <v>788</v>
+      </c>
+      <c r="H83" s="222" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="84" spans="1:9" ht="12.75">
-      <c r="A84" s="188" t="s">
+      <c r="A84" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="B84" s="190" t="s">
-        <v>700</v>
-      </c>
-      <c r="C84" s="163"/>
+      <c r="B84" s="189" t="s">
+        <v>698</v>
+      </c>
+      <c r="C84" s="163" t="s">
+        <v>813</v>
+      </c>
       <c r="D84" s="156" t="s">
-        <v>724</v>
-      </c>
-      <c r="E84" s="162"/>
-      <c r="F84" s="196"/>
-      <c r="G84" s="175"/>
-      <c r="H84" s="164"/>
+        <v>720</v>
+      </c>
+      <c r="E84" s="162" t="s">
+        <v>812</v>
+      </c>
+      <c r="F84" s="217" t="s">
+        <v>814</v>
+      </c>
+      <c r="G84" s="175" t="s">
+        <v>781</v>
+      </c>
+      <c r="H84" s="164" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="12.75">
-      <c r="A85" s="188" t="s">
+      <c r="A85" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="B85" s="190"/>
-      <c r="C85" s="197"/>
+      <c r="B85" s="189"/>
+      <c r="C85" s="195"/>
       <c r="D85" s="170"/>
       <c r="E85" s="162"/>
       <c r="F85" s="162"/>
@@ -13225,8 +14276,8 @@
       <c r="H85" s="164"/>
     </row>
     <row r="86" spans="1:9" ht="12.75">
-      <c r="A86" s="190"/>
-      <c r="B86" s="190"/>
+      <c r="A86" s="189"/>
+      <c r="B86" s="189"/>
       <c r="C86" s="163"/>
       <c r="D86" s="170"/>
       <c r="E86" s="162"/>
@@ -13235,8 +14286,8 @@
       <c r="H86" s="164"/>
     </row>
     <row r="87" spans="1:9" ht="12.75">
-      <c r="A87" s="190"/>
-      <c r="B87" s="190"/>
+      <c r="A87" s="189"/>
+      <c r="B87" s="189"/>
       <c r="C87" s="163"/>
       <c r="D87" s="170"/>
       <c r="E87" s="162"/>
@@ -13245,8 +14296,8 @@
       <c r="H87" s="164"/>
     </row>
     <row r="88" spans="1:9" ht="12.75">
-      <c r="A88" s="190"/>
-      <c r="B88" s="190"/>
+      <c r="A88" s="189"/>
+      <c r="B88" s="189"/>
       <c r="C88" s="163"/>
       <c r="D88" s="170"/>
       <c r="E88" s="162"/>
@@ -13255,18 +14306,18 @@
       <c r="H88" s="164"/>
     </row>
     <row r="89" spans="1:9" ht="12.75">
-      <c r="A89" s="190"/>
-      <c r="B89" s="190"/>
+      <c r="A89" s="189"/>
+      <c r="B89" s="189"/>
       <c r="C89" s="163"/>
-      <c r="D89" s="196"/>
-      <c r="E89" s="196"/>
+      <c r="D89" s="194"/>
+      <c r="E89" s="194"/>
       <c r="F89" s="162"/>
       <c r="G89" s="165"/>
-      <c r="H89" s="198"/>
+      <c r="H89" s="196"/>
     </row>
     <row r="90" spans="1:9" ht="15">
-      <c r="A90" s="190"/>
-      <c r="B90" s="190"/>
+      <c r="A90" s="189"/>
+      <c r="B90" s="189"/>
       <c r="C90" s="163"/>
       <c r="D90" s="156"/>
       <c r="E90" s="169"/>
@@ -13275,8 +14326,8 @@
       <c r="H90" s="164"/>
     </row>
     <row r="91" spans="1:9" ht="15">
-      <c r="A91" s="190"/>
-      <c r="B91" s="190"/>
+      <c r="A91" s="189"/>
+      <c r="B91" s="189"/>
       <c r="C91" s="163"/>
       <c r="D91" s="156"/>
       <c r="E91" s="162"/>
@@ -13285,20 +14336,20 @@
       <c r="H91" s="164"/>
     </row>
     <row r="92" spans="1:9" ht="15">
-      <c r="A92" s="190"/>
-      <c r="B92" s="190"/>
+      <c r="A92" s="189"/>
+      <c r="B92" s="189"/>
       <c r="C92" s="163"/>
       <c r="D92" s="156"/>
-      <c r="E92" s="189"/>
+      <c r="E92" s="188"/>
       <c r="F92" s="169"/>
       <c r="G92" s="165"/>
       <c r="H92" s="164"/>
       <c r="I92" s="78"/>
     </row>
     <row r="93" spans="1:9" ht="15">
-      <c r="A93" s="190"/>
-      <c r="B93" s="190"/>
-      <c r="C93" s="197"/>
+      <c r="A93" s="189"/>
+      <c r="B93" s="189"/>
+      <c r="C93" s="195"/>
       <c r="D93" s="156"/>
       <c r="E93" s="162"/>
       <c r="F93" s="169"/>
@@ -13306,8 +14357,8 @@
       <c r="H93" s="164"/>
     </row>
     <row r="94" spans="1:9" ht="15">
-      <c r="A94" s="190"/>
-      <c r="B94" s="190"/>
+      <c r="A94" s="189"/>
+      <c r="B94" s="189"/>
       <c r="C94" s="163"/>
       <c r="D94" s="156"/>
       <c r="E94" s="162"/>
@@ -13316,27 +14367,27 @@
       <c r="H94" s="164"/>
     </row>
     <row r="95" spans="1:9" ht="15">
-      <c r="A95" s="190"/>
-      <c r="B95" s="190"/>
+      <c r="A95" s="189"/>
+      <c r="B95" s="189"/>
       <c r="C95" s="163"/>
       <c r="D95" s="156"/>
-      <c r="E95" s="196"/>
+      <c r="E95" s="194"/>
       <c r="F95" s="169"/>
       <c r="G95" s="165"/>
       <c r="H95" s="164"/>
     </row>
     <row r="96" spans="1:9" ht="12.75">
-      <c r="A96" s="190"/>
-      <c r="B96" s="190"/>
+      <c r="A96" s="189"/>
+      <c r="B96" s="189"/>
       <c r="C96" s="163"/>
-      <c r="D96" s="196"/>
-      <c r="E96" s="196"/>
+      <c r="D96" s="194"/>
+      <c r="E96" s="194"/>
       <c r="F96" s="162"/>
       <c r="G96" s="165"/>
-      <c r="H96" s="198"/>
+      <c r="H96" s="196"/>
     </row>
     <row r="97" spans="1:9" ht="15">
-      <c r="A97" s="190"/>
+      <c r="A97" s="189"/>
       <c r="B97" s="162"/>
       <c r="C97" s="163"/>
       <c r="D97" s="156"/>
@@ -13346,7 +14397,7 @@
       <c r="H97" s="164"/>
     </row>
     <row r="98" spans="1:9" ht="12.75">
-      <c r="A98" s="190"/>
+      <c r="A98" s="189"/>
       <c r="B98" s="162"/>
       <c r="C98" s="163"/>
       <c r="D98" s="156"/>
@@ -13356,9 +14407,9 @@
       <c r="H98" s="164"/>
     </row>
     <row r="99" spans="1:9" ht="12.75">
-      <c r="A99" s="190"/>
+      <c r="A99" s="189"/>
       <c r="B99" s="162"/>
-      <c r="C99" s="197"/>
+      <c r="C99" s="195"/>
       <c r="D99" s="156"/>
       <c r="E99" s="162"/>
       <c r="F99" s="162"/>
@@ -13366,29 +14417,29 @@
       <c r="H99" s="164"/>
     </row>
     <row r="100" spans="1:9" ht="12.75">
-      <c r="A100" s="190"/>
-      <c r="B100" s="190"/>
-      <c r="C100" s="197"/>
+      <c r="A100" s="189"/>
+      <c r="B100" s="189"/>
+      <c r="C100" s="195"/>
       <c r="D100" s="156"/>
-      <c r="E100" s="189"/>
+      <c r="E100" s="188"/>
       <c r="F100" s="162"/>
       <c r="G100" s="173"/>
       <c r="H100" s="164"/>
       <c r="I100" s="78"/>
     </row>
     <row r="101" spans="1:9" ht="12.75">
-      <c r="A101" s="190"/>
-      <c r="B101" s="190"/>
+      <c r="A101" s="189"/>
+      <c r="B101" s="189"/>
       <c r="C101" s="163"/>
       <c r="D101" s="156"/>
-      <c r="E101" s="189"/>
+      <c r="E101" s="188"/>
       <c r="F101" s="162"/>
       <c r="G101" s="165"/>
       <c r="H101" s="164"/>
     </row>
     <row r="102" spans="1:9" ht="12.75">
-      <c r="A102" s="190"/>
-      <c r="B102" s="190"/>
+      <c r="A102" s="189"/>
+      <c r="B102" s="189"/>
       <c r="C102" s="163"/>
       <c r="D102" s="156"/>
       <c r="E102" s="162"/>
@@ -13397,18 +14448,18 @@
       <c r="H102" s="164"/>
     </row>
     <row r="103" spans="1:9" ht="12.75">
-      <c r="A103" s="190"/>
-      <c r="B103" s="190"/>
+      <c r="A103" s="189"/>
+      <c r="B103" s="189"/>
       <c r="C103" s="163"/>
       <c r="D103" s="156"/>
-      <c r="E103" s="196"/>
+      <c r="E103" s="194"/>
       <c r="F103" s="162"/>
       <c r="G103" s="173"/>
       <c r="H103" s="164"/>
     </row>
     <row r="104" spans="1:9" ht="12.75">
-      <c r="A104" s="190"/>
-      <c r="B104" s="190"/>
+      <c r="A104" s="189"/>
+      <c r="B104" s="189"/>
       <c r="C104" s="163"/>
       <c r="D104" s="156"/>
       <c r="E104" s="162"/>
@@ -13417,17 +14468,17 @@
       <c r="H104" s="164"/>
     </row>
     <row r="105" spans="1:9" ht="12.75">
-      <c r="A105" s="190"/>
+      <c r="A105" s="189"/>
       <c r="B105" s="162"/>
       <c r="C105" s="163"/>
       <c r="D105" s="156"/>
-      <c r="E105" s="189"/>
+      <c r="E105" s="188"/>
       <c r="F105" s="162"/>
       <c r="G105" s="165"/>
       <c r="H105" s="164"/>
     </row>
     <row r="106" spans="1:9" ht="12.75">
-      <c r="A106" s="190"/>
+      <c r="A106" s="189"/>
       <c r="B106" s="162"/>
       <c r="C106" s="163"/>
       <c r="D106" s="156"/>
@@ -13437,9 +14488,9 @@
       <c r="H106" s="164"/>
     </row>
     <row r="107" spans="1:9" ht="12.75">
-      <c r="A107" s="190"/>
+      <c r="A107" s="189"/>
       <c r="B107" s="162"/>
-      <c r="C107" s="197"/>
+      <c r="C107" s="195"/>
       <c r="D107" s="156"/>
       <c r="E107" s="162"/>
       <c r="F107" s="162"/>
@@ -13447,8 +14498,8 @@
       <c r="H107" s="164"/>
     </row>
     <row r="108" spans="1:9" ht="12.75">
-      <c r="A108" s="190"/>
-      <c r="B108" s="190"/>
+      <c r="A108" s="189"/>
+      <c r="B108" s="189"/>
       <c r="C108" s="163"/>
       <c r="D108" s="156"/>
       <c r="E108" s="162"/>
@@ -13457,8 +14508,8 @@
       <c r="H108" s="164"/>
     </row>
     <row r="109" spans="1:9" ht="12.75">
-      <c r="A109" s="190"/>
-      <c r="B109" s="190"/>
+      <c r="A109" s="189"/>
+      <c r="B109" s="189"/>
       <c r="C109" s="163"/>
       <c r="D109" s="155"/>
       <c r="E109" s="37"/>
@@ -13467,8 +14518,8 @@
       <c r="H109" s="54"/>
     </row>
     <row r="110" spans="1:9" ht="12.75">
-      <c r="A110" s="190"/>
-      <c r="B110" s="190"/>
+      <c r="A110" s="189"/>
+      <c r="B110" s="189"/>
       <c r="C110" s="163"/>
       <c r="D110" s="155"/>
       <c r="E110" s="157"/>
@@ -13477,8 +14528,8 @@
       <c r="H110" s="54"/>
     </row>
     <row r="111" spans="1:9" ht="12.75">
-      <c r="A111" s="190"/>
-      <c r="B111" s="190"/>
+      <c r="A111" s="189"/>
+      <c r="B111" s="189"/>
       <c r="C111" s="163"/>
       <c r="D111" s="155"/>
       <c r="E111" s="37"/>
@@ -13487,8 +14538,8 @@
       <c r="H111" s="54"/>
     </row>
     <row r="112" spans="1:9" ht="12.75">
-      <c r="A112" s="190"/>
-      <c r="B112" s="190"/>
+      <c r="A112" s="189"/>
+      <c r="B112" s="189"/>
       <c r="C112" s="163"/>
       <c r="D112" s="155"/>
       <c r="E112" s="37"/>
@@ -13497,7 +14548,7 @@
       <c r="H112" s="54"/>
     </row>
     <row r="113" spans="1:8" ht="12.75">
-      <c r="A113" s="190"/>
+      <c r="A113" s="189"/>
       <c r="C113" s="71"/>
       <c r="G113" s="77"/>
       <c r="H113" s="54"/>
@@ -18168,14 +19219,15 @@
       <c r="H1046" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E19:E21"/>
+  <mergeCells count="6">
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="I41:I42"/>
-    <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
@@ -18187,32 +19239,31 @@
     <hyperlink ref="D24" r:id="rId8" display="http://localhost:8080/festival/fs_local_nm/regionid"/>
     <hyperlink ref="D28" r:id="rId9"/>
     <hyperlink ref="D14" r:id="rId10"/>
-    <hyperlink ref="D15" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D32" r:id="rId13"/>
-    <hyperlink ref="D34" r:id="rId14"/>
-    <hyperlink ref="D33" r:id="rId15"/>
-    <hyperlink ref="D35" r:id="rId16"/>
-    <hyperlink ref="D36" r:id="rId17"/>
-    <hyperlink ref="D37" r:id="rId18"/>
-    <hyperlink ref="D43" r:id="rId19"/>
-    <hyperlink ref="D44" r:id="rId20"/>
-    <hyperlink ref="D45" r:id="rId21"/>
-    <hyperlink ref="D46" r:id="rId22"/>
-    <hyperlink ref="D47" r:id="rId23"/>
-    <hyperlink ref="D48" r:id="rId24"/>
-    <hyperlink ref="D49" r:id="rId25"/>
-    <hyperlink ref="D50" r:id="rId26"/>
-    <hyperlink ref="D51" r:id="rId27"/>
-    <hyperlink ref="D52" r:id="rId28"/>
-    <hyperlink ref="D53" r:id="rId29"/>
-    <hyperlink ref="D55" r:id="rId30"/>
-    <hyperlink ref="D56" r:id="rId31"/>
-    <hyperlink ref="D57" r:id="rId32"/>
-    <hyperlink ref="D59" r:id="rId33" display="http://localhost:8080/board?page="/>
-    <hyperlink ref="D61" r:id="rId34"/>
-    <hyperlink ref="D64" r:id="rId35" display="http://localhost:8080/login"/>
-    <hyperlink ref="D84" r:id="rId36"/>
+    <hyperlink ref="D55" r:id="rId11"/>
+    <hyperlink ref="D56" r:id="rId12"/>
+    <hyperlink ref="D57" r:id="rId13"/>
+    <hyperlink ref="D59" r:id="rId14" display="http://localhost:8080/board?page="/>
+    <hyperlink ref="D61" r:id="rId15"/>
+    <hyperlink ref="D84" r:id="rId16"/>
+    <hyperlink ref="D9" r:id="rId17"/>
+    <hyperlink ref="D15" r:id="rId18"/>
+    <hyperlink ref="D4" r:id="rId19"/>
+    <hyperlink ref="D5" r:id="rId20"/>
+    <hyperlink ref="D13" r:id="rId21"/>
+    <hyperlink ref="D33" r:id="rId22"/>
+    <hyperlink ref="D34" r:id="rId23" display="http://localhost:8080/quiz/quiz_no"/>
+    <hyperlink ref="D64" r:id="rId24" display="http://localhost:8080/login"/>
+    <hyperlink ref="D43" r:id="rId25"/>
+    <hyperlink ref="D44" r:id="rId26"/>
+    <hyperlink ref="D45" r:id="rId27"/>
+    <hyperlink ref="D46" r:id="rId28"/>
+    <hyperlink ref="D47" r:id="rId29"/>
+    <hyperlink ref="D48" r:id="rId30"/>
+    <hyperlink ref="D49" r:id="rId31"/>
+    <hyperlink ref="D50" r:id="rId32"/>
+    <hyperlink ref="D51" r:id="rId33"/>
+    <hyperlink ref="D52" r:id="rId34"/>
+    <hyperlink ref="D53" r:id="rId35"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18265,56 +19316,56 @@
       <c r="J1" s="82"/>
       <c r="K1" s="83"/>
       <c r="L1" s="84"/>
-      <c r="M1" s="257" t="s">
+      <c r="M1" s="264" t="s">
         <v>420</v>
       </c>
-      <c r="N1" s="258"/>
-      <c r="O1" s="258"/>
-      <c r="P1" s="258"/>
-      <c r="Q1" s="258"/>
-      <c r="R1" s="258"/>
-      <c r="S1" s="258"/>
-      <c r="T1" s="258"/>
-      <c r="U1" s="258"/>
-      <c r="V1" s="258"/>
-      <c r="W1" s="258"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="257" t="s">
+      <c r="N1" s="265"/>
+      <c r="O1" s="265"/>
+      <c r="P1" s="265"/>
+      <c r="Q1" s="265"/>
+      <c r="R1" s="265"/>
+      <c r="S1" s="265"/>
+      <c r="T1" s="265"/>
+      <c r="U1" s="265"/>
+      <c r="V1" s="265"/>
+      <c r="W1" s="265"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="264" t="s">
         <v>421</v>
       </c>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="258"/>
-      <c r="AB1" s="258"/>
-      <c r="AC1" s="258"/>
-      <c r="AD1" s="258"/>
-      <c r="AE1" s="258"/>
-      <c r="AF1" s="258"/>
-      <c r="AG1" s="258"/>
-      <c r="AH1" s="258"/>
-      <c r="AI1" s="258"/>
-      <c r="AJ1" s="258"/>
-      <c r="AK1" s="258"/>
-      <c r="AL1" s="258"/>
-      <c r="AM1" s="258"/>
-      <c r="AN1" s="258"/>
-      <c r="AO1" s="258"/>
-      <c r="AP1" s="258"/>
-      <c r="AQ1" s="258"/>
-      <c r="AR1" s="260"/>
+      <c r="Z1" s="265"/>
+      <c r="AA1" s="265"/>
+      <c r="AB1" s="265"/>
+      <c r="AC1" s="265"/>
+      <c r="AD1" s="265"/>
+      <c r="AE1" s="265"/>
+      <c r="AF1" s="265"/>
+      <c r="AG1" s="265"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="265"/>
+      <c r="AJ1" s="265"/>
+      <c r="AK1" s="265"/>
+      <c r="AL1" s="265"/>
+      <c r="AM1" s="265"/>
+      <c r="AN1" s="265"/>
+      <c r="AO1" s="265"/>
+      <c r="AP1" s="265"/>
+      <c r="AQ1" s="265"/>
+      <c r="AR1" s="267"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" customHeight="1">
       <c r="A2" s="85"/>
       <c r="B2" s="86" t="s">
         <v>422</v>
       </c>
-      <c r="C2" s="261" t="s">
+      <c r="C2" s="268" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="259"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="266"/>
       <c r="I2" s="87" t="s">
         <v>424</v>
       </c>
@@ -68228,7 +69279,7 @@
     <mergeCell ref="Y1:AR1"/>
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="G10">
     <cfRule type="notContainsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(G10))&gt;0</formula>
